--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Vkp VitalSigns Observation</t>
+    <t>General Vkp Observation</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile general observations in VKP.</t>
+    <t>Profile for general observations in VKP.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -1360,6 +1360,9 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
+  </si>
+  <si>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2252,7 +2255,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="49.4921875" customWidth="true" bestFit="true"/>
@@ -9974,7 +9977,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>343</v>
+        <v>430</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10027,7 +10030,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10144,7 +10147,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10259,7 +10262,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10376,7 +10379,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10493,7 +10496,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10516,19 +10519,19 @@
         <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10577,7 +10580,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10586,7 +10589,7 @@
         <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10595,24 +10598,24 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10638,16 +10641,16 @@
         <v>187</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10675,10 +10678,10 @@
         <v>307</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10696,7 +10699,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10705,7 +10708,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>101</v>
@@ -10720,7 +10723,7 @@
         <v>132</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10731,11 +10734,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10757,16 +10760,16 @@
         <v>187</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10794,10 +10797,10 @@
         <v>307</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10815,7 +10818,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10833,24 +10836,24 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10873,19 +10876,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10934,7 +10937,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10955,10 +10958,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10969,7 +10972,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10995,13 +10998,13 @@
         <v>187</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11030,10 +11033,10 @@
         <v>202</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -11051,7 +11054,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11069,24 +11072,24 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11112,16 +11115,16 @@
         <v>187</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11149,10 +11152,10 @@
         <v>202</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11170,7 +11173,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11191,10 +11194,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11205,7 +11208,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11228,16 +11231,16 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11287,7 +11290,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11305,24 +11308,24 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11345,16 +11348,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11404,7 +11407,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11422,24 +11425,24 @@
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11462,19 +11465,19 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11523,7 +11526,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11535,7 +11538,7 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11544,10 +11547,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11558,7 +11561,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11673,7 +11676,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11790,11 +11793,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11816,10 +11819,10 @@
         <v>135</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>138</v>
@@ -11874,7 +11877,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11909,7 +11912,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11932,13 +11935,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11989,7 +11992,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11998,7 +12001,7 @@
         <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -12010,10 +12013,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12024,7 +12027,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12047,13 +12050,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12104,7 +12107,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12113,7 +12116,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12125,10 +12128,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12139,7 +12142,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12165,16 +12168,16 @@
         <v>187</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12202,10 +12205,10 @@
         <v>113</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12223,7 +12226,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12241,13 +12244,13 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12258,7 +12261,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12284,16 +12287,16 @@
         <v>187</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12321,10 +12324,10 @@
         <v>202</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12342,7 +12345,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12360,13 +12363,13 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12377,7 +12380,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12400,17 +12403,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12459,7 +12462,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12483,7 +12486,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12494,7 +12497,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12520,10 +12523,10 @@
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12574,7 +12577,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12595,10 +12598,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12609,7 +12612,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12632,16 +12635,16 @@
         <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12691,7 +12694,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12712,10 +12715,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12726,7 +12729,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12749,16 +12752,16 @@
         <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12808,7 +12811,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12829,10 +12832,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12843,7 +12846,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12866,19 +12869,19 @@
         <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12927,7 +12930,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12948,10 +12951,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12962,7 +12965,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13077,7 +13080,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13194,11 +13197,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13220,10 +13223,10 @@
         <v>135</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>138</v>
@@ -13278,7 +13281,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13313,7 +13316,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13339,13 +13342,13 @@
         <v>187</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>201</v>
@@ -13397,7 +13400,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>89</v>
@@ -13415,7 +13418,7 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>207</v>
@@ -13432,7 +13435,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13455,19 +13458,19 @@
         <v>90</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13516,7 +13519,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13534,24 +13537,24 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13577,16 +13580,16 @@
         <v>187</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13614,10 +13617,10 @@
         <v>307</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13635,7 +13638,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13644,7 +13647,7 @@
         <v>89</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>101</v>
@@ -13659,7 +13662,7 @@
         <v>132</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13670,11 +13673,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13696,16 +13699,16 @@
         <v>187</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13733,10 +13736,10 @@
         <v>307</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13754,7 +13757,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13772,24 +13775,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13815,16 +13818,16 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13873,7 +13876,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13894,10 +13897,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>General Vkp Observation</t>
+    <t>Vkp VitalSigns Observation</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for general observations in VKP.</t>
+    <t>Profile general observations in VKP.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1360,9 +1360,6 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
-  </si>
-  <si>
-    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2255,7 +2252,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="49.4921875" customWidth="true" bestFit="true"/>
@@ -9977,7 +9974,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10030,7 +10027,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10147,7 +10144,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10262,7 +10259,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10379,7 +10376,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10496,7 +10493,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10519,19 +10516,19 @@
         <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10580,7 +10577,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10589,7 +10586,7 @@
         <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10598,24 +10595,24 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10641,16 +10638,16 @@
         <v>187</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10678,11 +10675,11 @@
         <v>307</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10699,7 +10696,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10708,7 +10705,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>101</v>
@@ -10723,7 +10720,7 @@
         <v>132</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10734,11 +10731,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10760,16 +10757,16 @@
         <v>187</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10797,11 +10794,11 @@
         <v>307</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10818,7 +10815,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10836,24 +10833,24 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10876,19 +10873,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10937,7 +10934,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10958,10 +10955,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10972,7 +10969,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10998,13 +10995,13 @@
         <v>187</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11033,11 +11030,11 @@
         <v>202</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11054,7 +11051,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11072,24 +11069,24 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11115,16 +11112,16 @@
         <v>187</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11152,11 +11149,11 @@
         <v>202</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11173,7 +11170,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11194,10 +11191,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11208,7 +11205,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11231,16 +11228,16 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11290,7 +11287,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11308,24 +11305,24 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11348,16 +11345,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11407,7 +11404,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11425,24 +11422,24 @@
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>511</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11465,19 +11462,19 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11526,7 +11523,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11538,19 +11535,19 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11561,7 +11558,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11676,7 +11673,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11793,11 +11790,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11819,10 +11816,10 @@
         <v>135</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>138</v>
@@ -11877,7 +11874,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11912,7 +11909,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11935,13 +11932,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11992,7 +11989,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12001,7 +11998,7 @@
         <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -12013,10 +12010,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12027,7 +12024,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12050,13 +12047,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12107,7 +12104,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12116,7 +12113,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12128,10 +12125,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12142,7 +12139,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12168,16 +12165,16 @@
         <v>187</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12205,11 +12202,11 @@
         <v>113</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12226,7 +12223,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12244,13 +12241,13 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="AM85" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12261,7 +12258,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12287,16 +12284,16 @@
         <v>187</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12324,11 +12321,11 @@
         <v>202</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12345,7 +12342,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12363,13 +12360,13 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AL86" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="AM86" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12380,7 +12377,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12403,17 +12400,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12462,7 +12459,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12486,7 +12483,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12497,7 +12494,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12523,10 +12520,10 @@
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12577,7 +12574,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12598,10 +12595,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12612,7 +12609,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12635,16 +12632,16 @@
         <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12694,7 +12691,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12715,10 +12712,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12729,7 +12726,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12752,16 +12749,16 @@
         <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12811,7 +12808,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12832,10 +12829,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12846,7 +12843,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12869,19 +12866,19 @@
         <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12930,7 +12927,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12951,10 +12948,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12965,7 +12962,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13080,7 +13077,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13197,11 +13194,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13223,10 +13220,10 @@
         <v>135</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>138</v>
@@ -13281,7 +13278,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13316,7 +13313,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13342,13 +13339,13 @@
         <v>187</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>201</v>
@@ -13400,7 +13397,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>89</v>
@@ -13418,7 +13415,7 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>207</v>
@@ -13435,7 +13432,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13458,19 +13455,19 @@
         <v>90</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L96" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="N96" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13519,7 +13516,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13537,24 +13534,24 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO96" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13580,16 +13577,16 @@
         <v>187</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>600</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13617,11 +13614,11 @@
         <v>307</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13638,7 +13635,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13647,7 +13644,7 @@
         <v>89</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>101</v>
@@ -13662,7 +13659,7 @@
         <v>132</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13673,11 +13670,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13699,16 +13696,16 @@
         <v>187</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13736,11 +13733,11 @@
         <v>307</v>
       </c>
       <c r="X98" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y98" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Y98" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13757,7 +13754,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13775,24 +13772,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13818,16 +13815,16 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="M99" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13876,7 +13873,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13897,10 +13894,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Vkp VitalSigns Observation</t>
+    <t>General Vkp Observation</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile general observations in VKP.</t>
+    <t>Profile for general observations in VKP.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1360,6 +1360,9 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
+  </si>
+  <si>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2252,7 +2255,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="49.4921875" customWidth="true" bestFit="true"/>
@@ -9974,7 +9977,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>343</v>
+        <v>430</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10027,7 +10030,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10144,7 +10147,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10259,7 +10262,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10376,7 +10379,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10493,7 +10496,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10516,19 +10519,19 @@
         <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10577,7 +10580,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10586,7 +10589,7 @@
         <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10595,24 +10598,24 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10638,16 +10641,16 @@
         <v>187</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10675,10 +10678,10 @@
         <v>307</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10696,7 +10699,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10705,7 +10708,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>101</v>
@@ -10720,7 +10723,7 @@
         <v>132</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10731,11 +10734,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10757,16 +10760,16 @@
         <v>187</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10794,10 +10797,10 @@
         <v>307</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10815,7 +10818,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10833,24 +10836,24 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10873,19 +10876,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10934,7 +10937,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10955,10 +10958,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10969,7 +10972,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10995,13 +10998,13 @@
         <v>187</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11030,10 +11033,10 @@
         <v>202</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -11051,7 +11054,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11069,24 +11072,24 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11112,16 +11115,16 @@
         <v>187</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11149,10 +11152,10 @@
         <v>202</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11170,7 +11173,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11191,10 +11194,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11205,7 +11208,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11228,16 +11231,16 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11287,7 +11290,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11305,24 +11308,24 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11345,16 +11348,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11404,7 +11407,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11422,24 +11425,24 @@
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11462,19 +11465,19 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11523,7 +11526,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11535,7 +11538,7 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11544,10 +11547,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11558,7 +11561,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11673,7 +11676,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11790,11 +11793,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11816,10 +11819,10 @@
         <v>135</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>138</v>
@@ -11874,7 +11877,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11909,7 +11912,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11932,13 +11935,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11989,7 +11992,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11998,7 +12001,7 @@
         <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -12010,10 +12013,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12024,7 +12027,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12047,13 +12050,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12104,7 +12107,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12113,7 +12116,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12125,10 +12128,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12139,7 +12142,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12165,16 +12168,16 @@
         <v>187</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12202,10 +12205,10 @@
         <v>113</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12223,7 +12226,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12241,13 +12244,13 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12258,7 +12261,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12284,16 +12287,16 @@
         <v>187</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12321,10 +12324,10 @@
         <v>202</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12342,7 +12345,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12360,13 +12363,13 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12377,7 +12380,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12400,17 +12403,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12459,7 +12462,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12483,7 +12486,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12494,7 +12497,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12520,10 +12523,10 @@
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12574,7 +12577,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12595,10 +12598,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12609,7 +12612,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12632,16 +12635,16 @@
         <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12691,7 +12694,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12712,10 +12715,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12726,7 +12729,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12749,16 +12752,16 @@
         <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12808,7 +12811,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12829,10 +12832,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12843,7 +12846,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12866,19 +12869,19 @@
         <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12927,7 +12930,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12948,10 +12951,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12962,7 +12965,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13077,7 +13080,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13194,11 +13197,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13220,10 +13223,10 @@
         <v>135</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>138</v>
@@ -13278,7 +13281,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13313,7 +13316,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13339,13 +13342,13 @@
         <v>187</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>201</v>
@@ -13397,7 +13400,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>89</v>
@@ -13415,7 +13418,7 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>207</v>
@@ -13432,7 +13435,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13455,19 +13458,19 @@
         <v>90</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13516,7 +13519,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13534,24 +13537,24 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13577,16 +13580,16 @@
         <v>187</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13614,10 +13617,10 @@
         <v>307</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13635,7 +13638,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13644,7 +13647,7 @@
         <v>89</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>101</v>
@@ -13659,7 +13662,7 @@
         <v>132</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13670,11 +13673,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13696,16 +13699,16 @@
         <v>187</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13733,10 +13736,10 @@
         <v>307</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13754,7 +13757,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13772,24 +13775,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13815,16 +13818,16 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13873,7 +13876,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13894,10 +13897,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="606">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -293,387 +293,391 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2232,39 +2236,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="49.4921875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="49.49609375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -4185,13 +4189,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4242,7 +4246,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4266,7 +4270,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4277,7 +4281,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4306,7 +4310,7 @@
         <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>138</v>
@@ -4347,19 +4351,19 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4383,7 +4387,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4394,7 +4398,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4417,19 +4421,19 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4466,19 +4470,19 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4499,10 +4503,10 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4513,10 +4517,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4538,19 +4542,19 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4599,7 +4603,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4620,10 +4624,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4634,7 +4638,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4657,13 +4661,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4714,7 +4718,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4738,7 +4742,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4749,7 +4753,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4778,7 +4782,7 @@
         <v>136</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>138</v>
@@ -4819,19 +4823,19 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4855,7 +4859,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4866,7 +4870,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4892,16 +4896,16 @@
         <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4911,7 +4915,7 @@
         <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>79</v>
@@ -4950,7 +4954,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4971,10 +4975,10 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4985,7 +4989,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5008,16 +5012,16 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5067,7 +5071,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5088,10 +5092,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5102,7 +5106,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5128,14 +5132,14 @@
         <v>109</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5184,7 +5188,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5205,10 +5209,10 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5219,7 +5223,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5242,17 +5246,17 @@
         <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5301,7 +5305,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5322,10 +5326,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5336,7 +5340,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5359,19 +5363,19 @@
         <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5420,7 +5424,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5441,10 +5445,10 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5455,10 +5459,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>79</v>
@@ -5480,19 +5484,19 @@
         <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5541,7 +5545,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5562,10 +5566,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5576,7 +5580,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5599,13 +5603,13 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5656,7 +5660,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5680,7 +5684,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5691,7 +5695,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5720,7 +5724,7 @@
         <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>138</v>
@@ -5761,19 +5765,19 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5797,7 +5801,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5808,7 +5812,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5834,16 +5838,16 @@
         <v>103</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5853,7 +5857,7 @@
         <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>79</v>
@@ -5892,7 +5896,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5913,10 +5917,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5927,7 +5931,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5950,16 +5954,16 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6009,7 +6013,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6030,10 +6034,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6044,7 +6048,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6070,14 +6074,14 @@
         <v>109</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6126,7 +6130,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6147,10 +6151,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6161,7 +6165,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6184,17 +6188,17 @@
         <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6243,7 +6247,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6264,10 +6268,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6278,7 +6282,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6301,19 +6305,19 @@
         <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6362,7 +6366,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6383,10 +6387,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6397,7 +6401,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6420,19 +6424,19 @@
         <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6481,7 +6485,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6502,10 +6506,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6516,7 +6520,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6539,19 +6543,19 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6600,7 +6604,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6615,19 +6619,19 @@
         <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6635,7 +6639,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6658,13 +6662,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6715,7 +6719,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6739,7 +6743,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6750,7 +6754,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6779,7 +6783,7 @@
         <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>138</v>
@@ -6820,19 +6824,19 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6856,7 +6860,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6867,7 +6871,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6890,16 +6894,16 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6949,7 +6953,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6958,7 +6962,7 @@
         <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>101</v>
@@ -6984,7 +6988,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7010,13 +7014,13 @@
         <v>103</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7042,13 +7046,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7066,7 +7070,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7101,7 +7105,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7127,13 +7131,13 @@
         <v>147</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7183,7 +7187,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7207,7 +7211,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7218,7 +7222,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7241,13 +7245,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7298,7 +7302,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7322,7 +7326,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7333,7 +7337,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7362,7 +7366,7 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>138</v>
@@ -7403,19 +7407,19 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7439,7 +7443,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7450,7 +7454,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7476,16 +7480,16 @@
         <v>109</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7513,10 +7517,10 @@
         <v>178</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7534,7 +7538,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7558,7 +7562,7 @@
         <v>132</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7569,7 +7573,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7595,16 +7599,16 @@
         <v>187</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7629,13 +7633,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7653,7 +7657,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7674,10 +7678,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7688,7 +7692,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7714,16 +7718,16 @@
         <v>103</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7736,7 +7740,7 @@
         <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>79</v>
@@ -7752,7 +7756,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7770,7 +7774,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7791,10 +7795,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7805,7 +7809,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7828,16 +7832,16 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7851,7 +7855,7 @@
         <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>79</v>
@@ -7887,7 +7891,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7908,10 +7912,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7922,7 +7926,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7945,13 +7949,13 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8002,7 +8006,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8023,10 +8027,10 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8037,7 +8041,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8060,16 +8064,16 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8119,7 +8123,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8140,10 +8144,10 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8154,7 +8158,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8177,16 +8181,16 @@
         <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8236,7 +8240,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8271,7 +8275,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8294,16 +8298,16 @@
         <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8353,7 +8357,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8377,10 +8381,10 @@
         <v>207</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8388,11 +8392,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8411,19 +8415,19 @@
         <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8472,7 +8476,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8487,19 +8491,19 @@
         <v>101</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8507,11 +8511,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8530,19 +8534,19 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8591,7 +8595,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8606,19 +8610,19 @@
         <v>101</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8626,7 +8630,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8649,16 +8653,16 @@
         <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8708,7 +8712,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8729,13 +8733,13 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8743,7 +8747,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8766,17 +8770,17 @@
         <v>90</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8825,7 +8829,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8840,19 +8844,19 @@
         <v>101</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8883,13 +8887,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8940,7 +8944,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8964,7 +8968,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8975,7 +8979,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9004,7 +9008,7 @@
         <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>138</v>
@@ -9045,19 +9049,19 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9081,7 +9085,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9092,7 +9096,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9115,16 +9119,16 @@
         <v>90</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9174,7 +9178,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9183,7 +9187,7 @@
         <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>101</v>
@@ -9209,7 +9213,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9235,13 +9239,13 @@
         <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9267,13 +9271,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9291,7 +9295,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9326,7 +9330,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9352,13 +9356,13 @@
         <v>147</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9408,7 +9412,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9432,7 +9436,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9443,7 +9447,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9466,13 +9470,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9523,7 +9527,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9547,7 +9551,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9558,7 +9562,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9587,7 +9591,7 @@
         <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>138</v>
@@ -9628,19 +9632,19 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9664,7 +9668,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9675,7 +9679,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9701,16 +9705,16 @@
         <v>109</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9738,10 +9742,10 @@
         <v>178</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9759,7 +9763,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9783,7 +9787,7 @@
         <v>132</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9794,7 +9798,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9820,16 +9824,16 @@
         <v>187</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9854,13 +9858,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9878,7 +9882,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9899,10 +9903,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9913,7 +9917,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9939,16 +9943,16 @@
         <v>103</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9961,7 +9965,7 @@
         <v>79</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>79</v>
@@ -9977,7 +9981,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9995,7 +9999,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10016,10 +10020,10 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10030,7 +10034,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10053,16 +10057,16 @@
         <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10076,7 +10080,7 @@
         <v>79</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>79</v>
@@ -10112,7 +10116,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10133,10 +10137,10 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10147,7 +10151,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10170,13 +10174,13 @@
         <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10227,7 +10231,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10248,10 +10252,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10262,7 +10266,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10285,16 +10289,16 @@
         <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10344,7 +10348,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10365,10 +10369,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10379,7 +10383,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10402,16 +10406,16 @@
         <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10461,7 +10465,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10496,7 +10500,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10519,19 +10523,19 @@
         <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10580,7 +10584,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10589,7 +10593,7 @@
         <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10598,24 +10602,24 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10641,16 +10645,16 @@
         <v>187</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10675,13 +10679,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10699,7 +10703,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10708,7 +10712,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>101</v>
@@ -10723,7 +10727,7 @@
         <v>132</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10734,11 +10738,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10760,16 +10764,16 @@
         <v>187</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10794,13 +10798,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10818,7 +10822,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10836,24 +10840,24 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10876,19 +10880,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10937,7 +10941,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10958,10 +10962,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10972,7 +10976,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10998,13 +11002,13 @@
         <v>187</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11033,10 +11037,10 @@
         <v>202</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -11054,7 +11058,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11072,24 +11076,24 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11115,16 +11119,16 @@
         <v>187</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11152,10 +11156,10 @@
         <v>202</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11173,7 +11177,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11194,10 +11198,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11208,7 +11212,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11231,16 +11235,16 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11290,7 +11294,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11308,24 +11312,24 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11348,16 +11352,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11407,7 +11411,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11425,24 +11429,24 @@
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11465,19 +11469,19 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11526,7 +11530,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11538,7 +11542,7 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11547,10 +11551,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11561,7 +11565,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11584,13 +11588,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11641,7 +11645,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11665,7 +11669,7 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11676,7 +11680,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11705,7 +11709,7 @@
         <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>138</v>
@@ -11758,7 +11762,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11782,7 +11786,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11793,11 +11797,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11819,10 +11823,10 @@
         <v>135</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>138</v>
@@ -11877,7 +11881,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11912,7 +11916,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11935,13 +11939,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11992,7 +11996,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12001,7 +12005,7 @@
         <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -12013,10 +12017,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12027,7 +12031,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12050,13 +12054,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12107,7 +12111,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12116,7 +12120,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12128,10 +12132,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12142,7 +12146,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12168,16 +12172,16 @@
         <v>187</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12205,10 +12209,10 @@
         <v>113</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12226,7 +12230,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12244,13 +12248,13 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12261,7 +12265,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12287,16 +12291,16 @@
         <v>187</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12324,10 +12328,10 @@
         <v>202</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12345,7 +12349,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12363,13 +12367,13 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12380,7 +12384,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12403,17 +12407,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12462,7 +12466,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12486,7 +12490,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12497,7 +12501,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12520,13 +12524,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12577,7 +12581,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12598,10 +12602,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12612,7 +12616,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12635,16 +12639,16 @@
         <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12694,7 +12698,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12715,10 +12719,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12729,7 +12733,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12752,16 +12756,16 @@
         <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12811,7 +12815,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12832,10 +12836,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12846,7 +12850,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12869,19 +12873,19 @@
         <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12930,7 +12934,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12951,10 +12955,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12965,7 +12969,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12988,13 +12992,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13045,7 +13049,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13069,7 +13073,7 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13080,7 +13084,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13109,7 +13113,7 @@
         <v>136</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>138</v>
@@ -13162,7 +13166,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13186,7 +13190,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13197,11 +13201,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13223,10 +13227,10 @@
         <v>135</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>138</v>
@@ -13281,7 +13285,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13316,7 +13320,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13342,13 +13346,13 @@
         <v>187</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>201</v>
@@ -13400,7 +13404,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>89</v>
@@ -13418,7 +13422,7 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>207</v>
@@ -13435,7 +13439,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13458,19 +13462,19 @@
         <v>90</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13519,7 +13523,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13537,24 +13541,24 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13580,16 +13584,16 @@
         <v>187</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13614,13 +13618,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13638,7 +13642,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13647,7 +13651,7 @@
         <v>89</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>101</v>
@@ -13662,7 +13666,7 @@
         <v>132</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13673,11 +13677,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13699,16 +13703,16 @@
         <v>187</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13733,13 +13737,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13757,7 +13761,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13775,24 +13779,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13818,16 +13822,16 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13876,7 +13880,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13897,10 +13901,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -266,10 +266,6 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2499,19 +2495,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2522,7 +2518,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2533,28 +2529,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2604,13 +2600,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2639,7 +2635,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2650,25 +2646,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2719,19 +2715,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2754,7 +2750,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2765,28 +2761,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2836,19 +2832,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2871,7 +2867,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2882,7 +2878,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2894,16 +2890,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2929,43 +2925,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -2988,18 +2984,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -3011,16 +3007,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3070,31 +3066,31 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3105,11 +3101,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3128,16 +3124,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3187,7 +3183,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -3211,7 +3207,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3222,11 +3218,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3245,16 +3241,16 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3304,7 +3300,7 @@
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3316,7 +3312,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3328,7 +3324,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -3339,11 +3335,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3356,25 +3352,25 @@
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>79</v>
@@ -3423,7 +3419,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3435,7 +3431,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3447,7 +3443,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3458,7 +3454,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3478,20 +3474,20 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
@@ -3540,7 +3536,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3552,22 +3548,22 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>79</v>
@@ -3575,11 +3571,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3595,20 +3591,20 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3657,7 +3653,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3669,19 +3665,19 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3692,11 +3688,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3712,19 +3708,19 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3774,7 +3770,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3786,19 +3782,19 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3809,7 +3805,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3817,34 +3813,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3869,58 +3865,58 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3928,7 +3924,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3951,19 +3947,19 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3988,14 +3984,14 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
       </c>
@@ -4012,7 +4008,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4024,7 +4020,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -4036,10 +4032,10 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -4047,42 +4043,42 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -4107,66 +4103,66 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4177,7 +4173,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
@@ -4189,13 +4185,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4246,31 +4242,31 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4281,11 +4277,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4304,16 +4300,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4351,19 +4347,19 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AB18" t="s" s="2">
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
+      <c r="AE18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4375,7 +4371,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4387,7 +4383,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4398,7 +4394,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4418,22 +4414,22 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4470,19 +4466,19 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AB19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4494,7 +4490,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4503,10 +4499,10 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4517,10 +4513,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4533,28 +4529,28 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4603,7 +4599,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4615,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4624,10 +4620,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4638,7 +4634,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4649,7 +4645,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4661,13 +4657,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4718,31 +4714,31 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4753,11 +4749,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4776,16 +4772,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4823,19 +4819,19 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4847,7 +4843,7 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -4859,7 +4855,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4870,7 +4866,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4878,34 +4874,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4915,70 +4911,70 @@
         <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4989,7 +4985,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5000,28 +4996,28 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5071,31 +5067,31 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5106,7 +5102,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5117,29 +5113,29 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5188,31 +5184,31 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5223,7 +5219,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5234,29 +5230,29 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5305,31 +5301,31 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5340,7 +5336,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5351,31 +5347,31 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5424,31 +5420,31 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5459,10 +5455,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>79</v>
@@ -5475,28 +5471,28 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5545,7 +5541,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5557,7 +5553,7 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5566,10 +5562,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5580,7 +5576,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5591,7 +5587,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5603,13 +5599,13 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5660,31 +5656,31 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5695,11 +5691,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5718,16 +5714,16 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5765,19 +5761,19 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AB30" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AB30" t="s" s="2">
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
+      <c r="AE30" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5789,7 +5785,7 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5801,7 +5797,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5812,7 +5808,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5820,34 +5816,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5857,7 +5853,7 @@
         <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>79</v>
@@ -5896,31 +5892,31 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5931,7 +5927,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5942,28 +5938,28 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6013,31 +6009,31 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6048,7 +6044,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6059,29 +6055,29 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6130,31 +6126,31 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6165,7 +6161,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6176,29 +6172,29 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6247,31 +6243,31 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6282,7 +6278,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6293,31 +6289,31 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6366,31 +6362,31 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6401,7 +6397,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6412,31 +6408,31 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6485,31 +6481,31 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6520,7 +6516,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6528,34 +6524,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6604,34 +6600,34 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6639,7 +6635,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6650,7 +6646,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6662,13 +6658,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6719,31 +6715,31 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6754,11 +6750,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6777,16 +6773,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K39" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L39" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6824,19 +6820,19 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AB39" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AB39" t="s" s="2">
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
+      <c r="AE39" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6848,7 +6844,7 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6860,7 +6856,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6871,7 +6867,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6882,28 +6878,28 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6953,19 +6949,19 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
@@ -6977,7 +6973,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6988,7 +6984,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6999,28 +6995,28 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7046,43 +7042,43 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
@@ -7094,7 +7090,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7105,7 +7101,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7116,28 +7112,28 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7187,31 +7183,31 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7222,7 +7218,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7233,7 +7229,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7245,13 +7241,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7302,31 +7298,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7337,11 +7333,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7360,16 +7356,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7407,19 +7403,19 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AB44" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AB44" t="s" s="2">
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
+      <c r="AE44" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7431,7 +7427,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7443,7 +7439,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7454,7 +7450,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7465,31 +7461,31 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7514,55 +7510,55 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
+      <c r="AF45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7573,7 +7569,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7584,31 +7580,31 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7633,55 +7629,55 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE46" t="s" s="2">
+      <c r="AF46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AM46" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7692,7 +7688,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7703,31 +7699,31 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7740,7 +7736,7 @@
         <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>79</v>
@@ -7752,53 +7748,53 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7809,7 +7805,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7820,28 +7816,28 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7855,67 +7851,67 @@
         <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="T48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7926,7 +7922,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7937,25 +7933,25 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8006,31 +8002,31 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8041,7 +8037,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8052,28 +8048,28 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8123,31 +8119,31 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8158,7 +8154,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8169,28 +8165,28 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8240,19 +8236,19 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -8264,7 +8260,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8275,7 +8271,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8295,19 +8291,19 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8357,7 +8353,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8369,7 +8365,7 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
@@ -8378,13 +8374,13 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8392,42 +8388,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8476,34 +8472,34 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8511,42 +8507,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8595,34 +8591,34 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8630,7 +8626,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8641,28 +8637,28 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8712,19 +8708,19 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
@@ -8733,13 +8729,13 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8747,7 +8743,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8761,26 +8757,26 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8829,7 +8825,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8841,22 +8837,22 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8864,7 +8860,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8875,7 +8871,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8887,13 +8883,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8944,31 +8940,31 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8979,11 +8975,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -9002,16 +8998,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K58" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L58" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9049,19 +9045,19 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AB58" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AB58" t="s" s="2">
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
+      <c r="AE58" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9073,7 +9069,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -9085,7 +9081,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9096,7 +9092,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9107,28 +9103,28 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9178,19 +9174,19 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AF59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9202,7 +9198,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9213,7 +9209,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9224,28 +9220,28 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9271,43 +9267,43 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="X60" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="X60" t="s" s="2">
+      <c r="Y60" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9319,7 +9315,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9330,7 +9326,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9341,28 +9337,28 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9412,31 +9408,31 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9447,7 +9443,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9458,7 +9454,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9470,13 +9466,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9527,31 +9523,31 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9562,11 +9558,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9585,16 +9581,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K63" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L63" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9632,19 +9628,19 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AB63" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AB63" t="s" s="2">
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
+      <c r="AE63" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9656,7 +9652,7 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9668,7 +9664,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9679,7 +9675,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9690,31 +9686,31 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9739,55 +9735,55 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
+      <c r="AF64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9798,7 +9794,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9809,31 +9805,31 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9858,55 +9854,55 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE65" t="s" s="2">
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AF65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AM65" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9917,7 +9913,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9928,31 +9924,31 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9965,7 +9961,7 @@
         <v>79</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>79</v>
@@ -9977,11 +9973,11 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9999,31 +9995,31 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AF66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10034,7 +10030,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10045,28 +10041,28 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10080,67 +10076,67 @@
         <v>79</v>
       </c>
       <c r="S67" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10151,7 +10147,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10162,25 +10158,25 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J68" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10231,31 +10227,31 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10266,7 +10262,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10277,28 +10273,28 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10348,31 +10344,31 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10383,7 +10379,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10394,28 +10390,28 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10465,19 +10461,19 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10489,7 +10485,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10500,7 +10496,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10511,31 +10507,31 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10584,42 +10580,42 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10630,7 +10626,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10642,19 +10638,19 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10679,55 +10675,55 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH72" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
+      <c r="AI72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10738,11 +10734,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10761,19 +10757,19 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10798,14 +10794,14 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10822,7 +10818,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10834,30 +10830,30 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10880,19 +10876,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10941,7 +10937,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10953,7 +10949,7 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10962,10 +10958,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10976,7 +10972,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10987,7 +10983,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -10999,16 +10995,16 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11034,66 +11030,66 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL75" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11104,7 +11100,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -11116,19 +11112,19 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11153,55 +11149,55 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11212,7 +11208,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11223,7 +11219,7 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -11235,16 +11231,16 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11294,42 +11290,42 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>503</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11340,7 +11336,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11352,16 +11348,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11411,42 +11407,42 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>512</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11469,19 +11465,19 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11530,7 +11526,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11542,19 +11538,19 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11565,7 +11561,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11576,7 +11572,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11588,13 +11584,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11645,31 +11641,31 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11680,11 +11676,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11703,16 +11699,16 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K81" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L81" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11762,7 +11758,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11774,7 +11770,7 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -11786,7 +11782,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11797,11 +11793,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11814,25 +11810,25 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11881,7 +11877,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11893,7 +11889,7 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
@@ -11905,7 +11901,7 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11916,7 +11912,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11927,7 +11923,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -11939,13 +11935,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11996,31 +11992,31 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AI83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12031,7 +12027,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12042,7 +12038,7 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>79</v>
@@ -12054,13 +12050,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12111,31 +12107,31 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AI84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AM84" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12146,7 +12142,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12157,7 +12153,7 @@
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>79</v>
@@ -12169,19 +12165,19 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12206,55 +12202,55 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="Y85" t="s" s="2">
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AM85" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12265,7 +12261,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12288,19 +12284,19 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12325,14 +12321,14 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>555</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12349,7 +12345,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12361,19 +12357,19 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AL86" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AM86" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12384,7 +12380,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12395,7 +12391,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12407,17 +12403,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12466,19 +12462,19 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12490,7 +12486,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12501,7 +12497,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12512,7 +12508,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12524,13 +12520,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12581,19 +12577,19 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12602,10 +12598,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12616,7 +12612,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12636,19 +12632,19 @@
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12698,7 +12694,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12710,7 +12706,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12719,10 +12715,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12733,7 +12729,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12753,19 +12749,19 @@
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12815,7 +12811,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12827,7 +12823,7 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
@@ -12836,10 +12832,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12850,7 +12846,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12870,22 +12866,22 @@
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12934,7 +12930,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12946,7 +12942,7 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
@@ -12955,10 +12951,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12969,7 +12965,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12980,7 +12976,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12992,13 +12988,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13049,31 +13045,31 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13084,11 +13080,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13107,16 +13103,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K93" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L93" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13166,7 +13162,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13178,7 +13174,7 @@
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
@@ -13190,7 +13186,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13201,11 +13197,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13218,25 +13214,25 @@
         <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="M94" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13285,7 +13281,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13297,7 +13293,7 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
@@ -13309,7 +13305,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13320,7 +13316,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13328,34 +13324,34 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J95" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="N95" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13380,14 +13376,14 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X95" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X95" t="s" s="2">
+      <c r="Y95" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13404,34 +13400,34 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13439,7 +13435,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13450,31 +13446,31 @@
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J96" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L96" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="N96" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13523,42 +13519,42 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO96" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13569,7 +13565,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13581,19 +13577,19 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13618,55 +13614,55 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="Y97" t="s" s="2">
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH97" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH97" t="s" s="2">
+      <c r="AI97" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13677,11 +13673,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13700,19 +13696,19 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13737,14 +13733,14 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X98" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Y98" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="Y98" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13761,7 +13757,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13773,30 +13769,30 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13822,16 +13818,16 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>605</v>
-      </c>
       <c r="M99" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13880,7 +13876,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13892,7 +13888,7 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>79</v>
@@ -13901,10 +13897,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>General Vkp Observation</t>
+    <t>Vkp VitalSigns Observation</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for general observations in VKP.</t>
+    <t>Profile general observations in VKP.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1360,9 +1360,6 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
-  </si>
-  <si>
-    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2255,7 +2252,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="49.49609375" customWidth="true" bestFit="true"/>
@@ -9977,7 +9974,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10030,7 +10027,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10147,7 +10144,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10262,7 +10259,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10379,7 +10376,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10496,7 +10493,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10519,19 +10516,19 @@
         <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10580,7 +10577,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10589,7 +10586,7 @@
         <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>100</v>
@@ -10598,24 +10595,24 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10641,16 +10638,16 @@
         <v>186</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10678,11 +10675,11 @@
         <v>307</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10699,7 +10696,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10708,7 +10705,7 @@
         <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>100</v>
@@ -10723,7 +10720,7 @@
         <v>131</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10734,11 +10731,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10760,16 +10757,16 @@
         <v>186</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10797,11 +10794,11 @@
         <v>307</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10818,7 +10815,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10836,24 +10833,24 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10876,19 +10873,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10937,7 +10934,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10958,10 +10955,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10972,7 +10969,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10998,13 +10995,13 @@
         <v>186</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11033,11 +11030,11 @@
         <v>201</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11054,7 +11051,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11072,24 +11069,24 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11115,16 +11112,16 @@
         <v>186</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11152,11 +11149,11 @@
         <v>201</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11173,7 +11170,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11194,10 +11191,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11208,7 +11205,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11231,16 +11228,16 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11290,7 +11287,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11308,24 +11305,24 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11348,16 +11345,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11407,7 +11404,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11425,24 +11422,24 @@
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>511</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11465,19 +11462,19 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11526,7 +11523,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11538,19 +11535,19 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11561,7 +11558,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11676,7 +11673,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11793,11 +11790,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11819,10 +11816,10 @@
         <v>134</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>137</v>
@@ -11877,7 +11874,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11912,7 +11909,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11935,13 +11932,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11992,7 +11989,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12001,7 +11998,7 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -12013,10 +12010,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12027,7 +12024,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12050,13 +12047,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12107,7 +12104,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12116,7 +12113,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -12128,10 +12125,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12142,7 +12139,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12168,16 +12165,16 @@
         <v>186</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12205,11 +12202,11 @@
         <v>112</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12226,7 +12223,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12244,13 +12241,13 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="AM85" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12261,7 +12258,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12287,16 +12284,16 @@
         <v>186</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12324,11 +12321,11 @@
         <v>201</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12345,7 +12342,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12363,13 +12360,13 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AL86" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="AM86" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12380,7 +12377,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12403,17 +12400,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12462,7 +12459,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12486,7 +12483,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12497,7 +12494,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12523,10 +12520,10 @@
         <v>211</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12577,7 +12574,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12598,10 +12595,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12612,7 +12609,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12635,16 +12632,16 @@
         <v>89</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12694,7 +12691,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12715,10 +12712,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12729,7 +12726,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12752,16 +12749,16 @@
         <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12811,7 +12808,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12832,10 +12829,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12846,7 +12843,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12869,19 +12866,19 @@
         <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12930,7 +12927,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12951,10 +12948,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12965,7 +12962,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13080,7 +13077,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13197,11 +13194,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13223,10 +13220,10 @@
         <v>134</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>137</v>
@@ -13281,7 +13278,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13316,7 +13313,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13342,13 +13339,13 @@
         <v>186</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>200</v>
@@ -13400,7 +13397,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>88</v>
@@ -13418,7 +13415,7 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>206</v>
@@ -13435,7 +13432,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13458,19 +13455,19 @@
         <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L96" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="N96" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13519,7 +13516,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13537,24 +13534,24 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO96" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13580,16 +13577,16 @@
         <v>186</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>600</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13617,11 +13614,11 @@
         <v>307</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13638,7 +13635,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13647,7 +13644,7 @@
         <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>100</v>
@@ -13662,7 +13659,7 @@
         <v>131</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13673,11 +13670,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13699,16 +13696,16 @@
         <v>186</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13736,11 +13733,11 @@
         <v>307</v>
       </c>
       <c r="X98" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y98" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Y98" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13757,7 +13754,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13775,24 +13772,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13818,16 +13815,16 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="M99" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13876,7 +13873,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13897,10 +13894,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$107</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4023" uniqueCount="607">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/vkp-Observation</t>
+    <t>http://ehelse.no/fhir/StructureDefinition/vkp-Observation</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Vkp VitalSigns Observation</t>
+    <t>General Vkp Observation</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17</t>
+    <t>2022-11-18</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile general observations in VKP.</t>
+    <t>Profile for general observations in VKP.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -730,7 +730,7 @@
 </t>
   </si>
   <si>
-    <t>Slices for LOINC anc SCT coding of Observation.code</t>
+    <t>Slices for LOINC, SCT and NPU/NLK coding of Observation.code</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -873,6 +873,12 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>NPU/NLK</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.7280</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1360,6 +1366,9 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
+  </si>
+  <si>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -2219,7 +2228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO99"/>
+  <dimension ref="A1:AO107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2252,10 +2261,10 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.08984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="49.49609375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="58.84765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -6392,11 +6401,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6405,10 +6416,10 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6417,19 +6428,19 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6478,13 +6489,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6499,10 +6510,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6511,9 +6522,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6521,35 +6532,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6597,7 +6604,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6609,22 +6616,22 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6632,18 +6639,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>235</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6655,15 +6662,17 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6700,31 +6709,31 @@
         <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -6747,18 +6756,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6767,27 +6776,29 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>79</v>
@@ -6817,31 +6828,31 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6850,10 +6861,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6864,7 +6875,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6890,13 +6901,13 @@
         <v>211</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6946,7 +6957,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6955,7 +6966,7 @@
         <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>100</v>
@@ -6967,10 +6978,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6981,7 +6992,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7004,18 +7015,18 @@
         <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7039,13 +7050,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7063,7 +7074,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7084,10 +7095,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7096,9 +7107,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7112,7 +7123,7 @@
         <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7121,18 +7132,18 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7180,7 +7191,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7201,10 +7212,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7215,7 +7226,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7235,19 +7246,23 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7295,7 +7310,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7307,7 +7322,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7316,10 +7331,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7330,18 +7345,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7350,21 +7365,23 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7400,31 +7417,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7433,10 +7450,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7445,9 +7462,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7455,34 +7472,34 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7507,13 +7524,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7531,7 +7548,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7546,19 +7563,19 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7566,7 +7583,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7586,23 +7603,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7626,13 +7639,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7650,7 +7663,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>214</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7662,7 +7675,7 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7671,10 +7684,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7683,45 +7696,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7733,7 +7744,7 @@
         <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>79</v>
@@ -7745,41 +7756,43 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7788,10 +7801,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>346</v>
+        <v>215</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7800,9 +7813,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7816,7 +7829,7 @@
         <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7828,13 +7841,13 @@
         <v>211</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7848,7 +7861,7 @@
         <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>79</v>
@@ -7884,7 +7897,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7893,7 +7906,7 @@
         <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
@@ -7905,10 +7918,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7919,7 +7932,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7942,15 +7955,17 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7975,13 +7990,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7999,7 +8014,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8020,10 +8035,10 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8032,9 +8047,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8048,7 +8063,7 @@
         <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8057,16 +8072,16 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>363</v>
+        <v>146</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8116,7 +8131,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8137,10 +8152,10 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8149,9 +8164,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8165,26 +8180,24 @@
         <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>211</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>212</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8233,7 +8246,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>214</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8245,7 +8258,7 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -8257,7 +8270,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8268,11 +8281,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8288,19 +8301,19 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>376</v>
+        <v>134</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
+        <v>217</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
+        <v>137</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8338,19 +8351,19 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>375</v>
+        <v>221</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8362,7 +8375,7 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
@@ -8371,13 +8384,13 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8385,11 +8398,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8402,25 +8415,25 @@
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8445,13 +8458,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8469,7 +8482,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8484,19 +8497,19 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8504,11 +8517,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8527,19 +8540,19 @@
         <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>394</v>
+        <v>186</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8564,13 +8577,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8588,7 +8601,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8603,27 +8616,27 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8637,7 +8650,7 @@
         <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8646,18 +8659,20 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>404</v>
+        <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>340</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8669,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8681,13 +8696,11 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8705,7 +8718,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8726,13 +8739,13 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8740,7 +8753,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8751,7 +8764,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>89</v>
@@ -8763,18 +8776,18 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>412</v>
+        <v>211</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8786,7 +8799,7 @@
         <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>79</v>
@@ -8822,13 +8835,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8837,19 +8850,19 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8857,7 +8870,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8877,16 +8890,16 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>213</v>
+        <v>360</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8937,7 +8950,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8949,7 +8962,7 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8958,10 +8971,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>215</v>
+        <v>363</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8972,18 +8985,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8992,19 +9005,19 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>217</v>
+        <v>367</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>137</v>
+        <v>368</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9042,31 +9055,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -9075,10 +9088,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>215</v>
+        <v>371</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9087,9 +9100,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9103,7 +9116,7 @@
         <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9115,13 +9128,13 @@
         <v>211</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9171,7 +9184,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9180,7 +9193,7 @@
         <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>100</v>
@@ -9206,7 +9219,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9217,7 +9230,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9229,16 +9242,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>102</v>
+        <v>378</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9264,13 +9277,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9288,13 +9301,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -9309,25 +9322,25 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>131</v>
+        <v>382</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9337,7 +9350,7 @@
         <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9346,18 +9359,20 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>146</v>
+        <v>385</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9405,7 +9420,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>315</v>
+        <v>383</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9420,19 +9435,19 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9440,11 +9455,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9460,19 +9475,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>212</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9520,7 +9539,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>214</v>
+        <v>394</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9532,22 +9551,22 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>215</v>
+        <v>403</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9555,18 +9574,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9575,19 +9594,19 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>217</v>
+        <v>408</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9625,31 +9644,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>221</v>
+        <v>405</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9658,21 +9677,21 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>215</v>
+        <v>411</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9683,31 +9702,29 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9732,13 +9749,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9756,13 +9773,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9771,19 +9788,19 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>327</v>
+        <v>420</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9791,7 +9808,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9811,23 +9828,19 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9851,13 +9864,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9875,7 +9888,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>335</v>
+        <v>214</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9887,7 +9900,7 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9896,10 +9909,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9908,45 +9921,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9958,7 +9969,7 @@
         <v>79</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>79</v>
@@ -9970,41 +9981,43 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -10013,10 +10026,10 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>346</v>
+        <v>215</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10025,9 +10038,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10041,7 +10054,7 @@
         <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -10053,13 +10066,13 @@
         <v>211</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10073,7 +10086,7 @@
         <v>79</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>79</v>
@@ -10109,7 +10122,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10118,7 +10131,7 @@
         <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>100</v>
@@ -10130,10 +10143,10 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10144,7 +10157,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10167,15 +10180,17 @@
         <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10200,13 +10215,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10224,7 +10239,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10245,10 +10260,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10257,9 +10272,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10273,7 +10288,7 @@
         <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10282,16 +10297,16 @@
         <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>363</v>
+        <v>146</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10341,7 +10356,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10362,10 +10377,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10374,9 +10389,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10390,26 +10405,24 @@
         <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>211</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>371</v>
+        <v>212</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10458,7 +10471,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>374</v>
+        <v>214</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10470,7 +10483,7 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10482,7 +10495,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10493,18 +10506,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10513,23 +10526,21 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>435</v>
+        <v>134</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>436</v>
+        <v>135</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>437</v>
+        <v>217</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10565,54 +10576,54 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>434</v>
+        <v>221</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>443</v>
+        <v>215</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10629,25 +10640,25 @@
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>446</v>
+        <v>322</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
+        <v>323</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>448</v>
+        <v>324</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>449</v>
+        <v>325</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10672,13 +10683,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>307</v>
+        <v>177</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>450</v>
+        <v>326</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>451</v>
+        <v>327</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10696,7 +10707,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>445</v>
+        <v>328</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10705,7 +10716,7 @@
         <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>100</v>
@@ -10720,7 +10731,7 @@
         <v>131</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>453</v>
+        <v>329</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10731,18 +10742,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10751,22 +10762,22 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>186</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>456</v>
+        <v>331</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>457</v>
+        <v>332</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>458</v>
+        <v>333</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>459</v>
+        <v>334</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10791,13 +10802,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>460</v>
+        <v>335</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>461</v>
+        <v>336</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10815,13 +10826,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>454</v>
+        <v>337</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10833,24 +10844,24 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>463</v>
+        <v>338</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>464</v>
+        <v>329</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10861,31 +10872,31 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>467</v>
+        <v>102</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>468</v>
+        <v>340</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>341</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>470</v>
+        <v>342</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>471</v>
+        <v>343</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10898,7 +10909,7 @@
         <v>79</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>79</v>
@@ -10910,13 +10921,11 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10934,13 +10943,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10955,10 +10964,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>472</v>
+        <v>347</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>473</v>
+        <v>348</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10967,9 +10976,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10983,25 +10992,25 @@
         <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>351</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>477</v>
+        <v>352</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11015,7 +11024,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -11027,13 +11036,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -11051,7 +11060,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>474</v>
+        <v>354</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11069,24 +11078,24 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>481</v>
+        <v>355</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11106,23 +11115,19 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>186</v>
+        <v>358</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>485</v>
+        <v>359</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11146,13 +11151,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11170,7 +11175,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>484</v>
+        <v>361</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11191,10 +11196,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>491</v>
+        <v>362</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>492</v>
+        <v>363</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11205,7 +11210,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11225,19 +11230,19 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>494</v>
+        <v>365</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>495</v>
+        <v>366</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>496</v>
+        <v>367</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>497</v>
+        <v>368</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11287,7 +11292,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>493</v>
+        <v>369</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11305,24 +11310,24 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>499</v>
+        <v>370</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>500</v>
+        <v>371</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11336,25 +11341,25 @@
         <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>503</v>
+        <v>211</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>504</v>
+        <v>373</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>505</v>
+        <v>374</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>506</v>
+        <v>375</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11404,7 +11409,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11422,24 +11427,24 @@
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>509</v>
+        <v>131</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11450,7 +11455,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11459,22 +11464,22 @@
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>513</v>
+        <v>439</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11523,42 +11528,42 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>517</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>518</v>
+        <v>445</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>519</v>
+        <v>446</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11581,16 +11586,20 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>212</v>
+        <v>449</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11614,13 +11623,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11638,7 +11647,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>214</v>
+        <v>448</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11647,10 +11656,10 @@
         <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
@@ -11659,10 +11668,10 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>215</v>
+        <v>456</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11673,11 +11682,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>133</v>
+        <v>458</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11696,18 +11705,20 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>135</v>
+        <v>459</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>217</v>
+        <v>460</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11731,13 +11742,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11755,7 +11766,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>221</v>
+        <v>457</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11767,34 +11778,34 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11807,25 +11818,25 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>134</v>
+        <v>470</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>524</v>
+        <v>471</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>137</v>
+        <v>473</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>143</v>
+        <v>474</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11874,7 +11885,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11886,7 +11897,7 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
@@ -11895,10 +11906,10 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>131</v>
+        <v>476</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11909,7 +11920,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11932,15 +11943,17 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>528</v>
+        <v>186</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>529</v>
+        <v>478</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11965,13 +11978,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11989,7 +12002,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11998,7 +12011,7 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -12007,24 +12020,24 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>532</v>
+        <v>484</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>533</v>
+        <v>485</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12047,16 +12060,20 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>528</v>
+        <v>186</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12080,13 +12097,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -12104,7 +12121,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12113,7 +12130,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -12125,10 +12142,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12139,7 +12156,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>496</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12162,20 +12179,18 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>186</v>
+        <v>497</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12199,13 +12214,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12223,7 +12238,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>538</v>
+        <v>496</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12241,24 +12256,24 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12269,7 +12284,7 @@
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>79</v>
@@ -12281,20 +12296,18 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>186</v>
+        <v>506</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12318,13 +12331,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12342,13 +12355,13 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
@@ -12360,24 +12373,24 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12388,7 +12401,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12400,17 +12413,19 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="N87" t="s" s="2">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12459,19 +12474,19 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12480,10 +12495,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12494,7 +12509,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12520,10 +12535,10 @@
         <v>211</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>561</v>
+        <v>212</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>562</v>
+        <v>213</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12574,7 +12589,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>560</v>
+        <v>214</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12586,7 +12601,7 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12595,10 +12610,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>563</v>
+        <v>215</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12609,11 +12624,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12629,19 +12644,19 @@
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>565</v>
+        <v>134</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>566</v>
+        <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>567</v>
+        <v>217</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>568</v>
+        <v>137</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12691,7 +12706,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>564</v>
+        <v>221</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12703,7 +12718,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12712,10 +12727,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>570</v>
+        <v>215</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12726,11 +12741,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12743,24 +12758,26 @@
         <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>572</v>
+        <v>134</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>573</v>
+        <v>527</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>528</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12808,7 +12825,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>571</v>
+        <v>529</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12820,7 +12837,7 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
@@ -12829,10 +12846,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>576</v>
+        <v>131</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12843,7 +12860,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12854,7 +12871,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12863,23 +12880,19 @@
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>532</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12927,16 +12940,16 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>100</v>
@@ -12948,10 +12961,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12962,7 +12975,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12985,13 +12998,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>211</v>
+        <v>531</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>212</v>
+        <v>538</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>213</v>
+        <v>539</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13042,7 +13055,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>214</v>
+        <v>537</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13051,10 +13064,10 @@
         <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
@@ -13063,10 +13076,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>215</v>
+        <v>540</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13077,18 +13090,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -13100,18 +13113,20 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>135</v>
+        <v>542</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>217</v>
+        <v>543</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13135,13 +13150,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13159,31 +13174,31 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>221</v>
+        <v>541</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13194,11 +13209,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13211,25 +13226,25 @@
         <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>143</v>
+        <v>554</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13254,13 +13269,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13278,7 +13293,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13290,19 +13305,19 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>131</v>
+        <v>467</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13313,7 +13328,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13321,7 +13336,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>88</v>
@@ -13333,22 +13348,20 @@
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>186</v>
+        <v>558</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>200</v>
+        <v>561</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13373,13 +13386,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13397,10 +13410,10 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>88</v>
@@ -13415,16 +13428,16 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>207</v>
+        <v>562</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13432,7 +13445,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13452,23 +13465,19 @@
         <v>79</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>435</v>
+        <v>211</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13516,7 +13525,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13534,24 +13543,24 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>442</v>
+        <v>535</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>443</v>
+        <v>566</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13562,7 +13571,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13571,23 +13580,21 @@
         <v>79</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>186</v>
+        <v>568</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13611,13 +13618,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13635,16 +13642,16 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>100</v>
@@ -13656,10 +13663,10 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>131</v>
+        <v>572</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>453</v>
+        <v>573</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13670,11 +13677,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13690,23 +13697,21 @@
         <v>79</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>186</v>
+        <v>575</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>456</v>
+        <v>576</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>457</v>
+        <v>577</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13730,13 +13735,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13754,7 +13759,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13772,24 +13777,24 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>463</v>
+        <v>572</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>464</v>
+        <v>579</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13809,22 +13814,22 @@
         <v>79</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13873,7 +13878,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13894,20 +13899,966 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM99" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AN99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO99" t="s" s="2">
+      <c r="O107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO99">
+  <autoFilter ref="A1:AO107">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13917,7 +14868,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI106">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="634">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2117,10 +2121,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2316,17 +2320,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2335,28 +2339,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.08984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="58.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="50.453125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2586,19 +2590,19 @@
         <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>80</v>
@@ -2609,10 +2613,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2623,7 +2627,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2632,19 +2636,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2694,13 +2698,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2729,10 +2733,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2743,7 +2747,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -2752,16 +2756,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2812,19 +2816,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2847,10 +2851,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2861,28 +2865,28 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2932,19 +2936,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -2967,10 +2971,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2981,7 +2985,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>80</v>
@@ -2993,16 +2997,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3028,13 +3032,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -3052,19 +3056,19 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -3087,21 +3091,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -3113,16 +3117,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3172,19 +3176,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -3196,7 +3200,7 @@
         <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>80</v>
@@ -3207,14 +3211,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3233,16 +3237,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3292,7 +3296,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -3316,7 +3320,7 @@
         <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>80</v>
@@ -3327,14 +3331,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3353,16 +3357,16 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3412,7 +3416,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3424,7 +3428,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -3436,7 +3440,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>80</v>
@@ -3447,14 +3451,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3467,25 +3471,25 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -3534,7 +3538,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3546,7 +3550,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -3558,7 +3562,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>80</v>
@@ -3569,10 +3573,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3592,20 +3596,20 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -3654,7 +3658,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3666,22 +3670,22 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>80</v>
@@ -3689,14 +3693,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3712,20 +3716,20 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3774,7 +3778,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3786,19 +3790,19 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -3809,14 +3813,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3832,19 +3836,19 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3894,7 +3898,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3906,19 +3910,19 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3929,10 +3933,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3940,34 +3944,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3992,13 +3996,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -4016,34 +4020,34 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -4051,10 +4055,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4077,19 +4081,19 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -4114,13 +4118,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -4138,7 +4142,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4150,7 +4154,7 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4162,10 +4166,10 @@
         <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -4173,21 +4177,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -4196,22 +4200,22 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4236,13 +4240,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -4260,45 +4264,45 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4309,7 +4313,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -4321,13 +4325,13 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4378,13 +4382,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -4402,7 +4406,7 @@
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4413,14 +4417,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4439,16 +4443,16 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4486,19 +4490,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4510,7 +4514,7 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4522,7 +4526,7 @@
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -4533,10 +4537,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4556,22 +4560,22 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4608,19 +4612,19 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4632,7 +4636,7 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4641,10 +4645,10 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4655,13 +4659,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
@@ -4674,28 +4678,28 @@
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4744,7 +4748,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4756,7 +4760,7 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4765,10 +4769,10 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4779,10 +4783,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4793,7 +4797,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4805,13 +4809,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4862,13 +4866,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4886,7 +4890,7 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4897,14 +4901,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4923,16 +4927,16 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4970,19 +4974,19 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4994,7 +4998,7 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -5006,7 +5010,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5017,10 +5021,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5028,10 +5032,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -5040,22 +5044,22 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -5065,7 +5069,7 @@
         <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>80</v>
@@ -5104,19 +5108,19 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -5125,10 +5129,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5139,10 +5143,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5153,7 +5157,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -5162,19 +5166,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5224,19 +5228,19 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5245,10 +5249,10 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5259,10 +5263,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5273,7 +5277,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -5282,20 +5286,20 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5344,19 +5348,19 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -5365,10 +5369,10 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5379,10 +5383,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5393,7 +5397,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5402,20 +5406,20 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5464,19 +5468,19 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5485,10 +5489,10 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5499,10 +5503,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5513,7 +5517,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5522,22 +5526,22 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5586,19 +5590,19 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -5607,10 +5611,10 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5621,13 +5625,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>80</v>
@@ -5640,28 +5644,28 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5710,7 +5714,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5722,7 +5726,7 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5731,10 +5735,10 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5745,10 +5749,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5759,7 +5763,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5771,13 +5775,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5828,13 +5832,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5852,7 +5856,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5863,14 +5867,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5889,16 +5893,16 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5936,19 +5940,19 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5960,7 +5964,7 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5972,7 +5976,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5983,10 +5987,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5994,10 +5998,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -6006,22 +6010,22 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -6031,7 +6035,7 @@
         <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>80</v>
@@ -6070,19 +6074,19 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -6091,10 +6095,10 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -6105,10 +6109,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6119,7 +6123,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -6128,19 +6132,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6190,19 +6194,19 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6211,10 +6215,10 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6225,10 +6229,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6239,7 +6243,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6248,20 +6252,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6310,19 +6314,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6331,10 +6335,10 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6345,10 +6349,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6359,7 +6363,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6368,20 +6372,20 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6430,19 +6434,19 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -6451,10 +6455,10 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6465,10 +6469,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6479,7 +6483,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6488,22 +6492,22 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6552,19 +6556,19 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6573,10 +6577,10 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6587,13 +6591,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>80</v>
@@ -6606,28 +6610,28 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6676,7 +6680,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6688,7 +6692,7 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6697,10 +6701,10 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6711,10 +6715,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6725,7 +6729,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6737,13 +6741,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6794,13 +6798,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6818,7 +6822,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6829,14 +6833,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6855,16 +6859,16 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6902,19 +6906,19 @@
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6926,7 +6930,7 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6938,7 +6942,7 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6949,10 +6953,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6960,10 +6964,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6972,29 +6976,29 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>80</v>
@@ -7036,19 +7040,19 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -7057,10 +7061,10 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7071,10 +7075,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7085,7 +7089,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -7094,19 +7098,19 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7156,19 +7160,19 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -7177,10 +7181,10 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7191,10 +7195,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7205,7 +7209,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -7214,20 +7218,20 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7276,19 +7280,19 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7297,10 +7301,10 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7311,10 +7315,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7325,7 +7329,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7334,20 +7338,20 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7396,19 +7400,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7417,10 +7421,10 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7431,10 +7435,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7445,7 +7449,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7454,22 +7458,22 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7518,19 +7522,19 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7539,10 +7543,10 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7553,10 +7557,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7567,7 +7571,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7576,22 +7580,22 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7640,19 +7644,19 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7661,10 +7665,10 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7675,10 +7679,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7686,34 +7690,34 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7762,34 +7766,34 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7797,10 +7801,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7811,7 +7815,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7823,13 +7827,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7880,13 +7884,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7904,7 +7908,7 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7915,14 +7919,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7941,16 +7945,16 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7988,19 +7992,19 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8012,7 +8016,7 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -8024,7 +8028,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8035,10 +8039,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8049,7 +8053,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -8058,19 +8062,19 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8120,19 +8124,19 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -8144,7 +8148,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8155,10 +8159,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8169,7 +8173,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -8178,19 +8182,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8216,13 +8220,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -8240,19 +8244,19 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -8264,7 +8268,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8275,10 +8279,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8289,28 +8293,28 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8360,19 +8364,19 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8384,7 +8388,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8395,10 +8399,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8409,7 +8413,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -8421,13 +8425,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8478,13 +8482,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -8502,7 +8506,7 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8513,14 +8517,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8539,16 +8543,16 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8586,19 +8590,19 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8610,7 +8614,7 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8622,7 +8626,7 @@
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8633,10 +8637,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8647,31 +8651,31 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8696,13 +8700,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8720,19 +8724,19 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8741,10 +8745,10 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8755,10 +8759,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8769,7 +8773,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8778,22 +8782,22 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8818,13 +8822,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8842,19 +8846,19 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8863,10 +8867,10 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8877,10 +8881,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8891,31 +8895,31 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8928,7 +8932,7 @@
         <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>80</v>
@@ -8940,11 +8944,11 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8962,19 +8966,19 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -8983,10 +8987,10 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8997,10 +9001,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9011,28 +9015,28 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9046,7 +9050,7 @@
         <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>80</v>
@@ -9082,19 +9086,19 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -9103,10 +9107,10 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -9117,10 +9121,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9131,7 +9135,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -9140,16 +9144,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9200,19 +9204,19 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9221,10 +9225,10 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9235,10 +9239,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9249,7 +9253,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9258,19 +9262,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9320,19 +9324,19 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -9341,10 +9345,10 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9355,10 +9359,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9369,28 +9373,28 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9440,19 +9444,19 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -9464,7 +9468,7 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9475,10 +9479,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9498,19 +9502,19 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9560,7 +9564,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9572,7 +9576,7 @@
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -9581,13 +9585,13 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9595,21 +9599,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9618,22 +9622,22 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9682,34 +9686,34 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9717,21 +9721,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9740,22 +9744,22 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9804,34 +9808,34 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9839,10 +9843,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9853,7 +9857,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9862,19 +9866,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9924,19 +9928,19 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -9945,13 +9949,13 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -9959,10 +9963,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9976,26 +9980,26 @@
         <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10044,7 +10048,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10056,22 +10060,22 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -10079,10 +10083,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10093,7 +10097,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -10105,13 +10109,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10162,13 +10166,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -10186,7 +10190,7 @@
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10197,14 +10201,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10223,16 +10227,16 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10270,19 +10274,19 @@
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10294,7 +10298,7 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -10306,7 +10310,7 @@
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10317,10 +10321,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10331,7 +10335,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10340,19 +10344,19 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10402,19 +10406,19 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10426,7 +10430,7 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10437,10 +10441,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10451,7 +10455,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10460,19 +10464,19 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10498,13 +10502,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10522,19 +10526,19 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10546,7 +10550,7 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10557,10 +10561,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10571,28 +10575,28 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10642,19 +10646,19 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10666,7 +10670,7 @@
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10677,10 +10681,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10691,7 +10695,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10703,13 +10707,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10760,13 +10764,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
@@ -10784,7 +10788,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10795,14 +10799,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10821,16 +10825,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10868,19 +10872,19 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10892,7 +10896,7 @@
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10904,7 +10908,7 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10915,10 +10919,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10929,31 +10933,31 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10978,13 +10982,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11002,19 +11006,19 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -11023,10 +11027,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11037,10 +11041,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11051,7 +11055,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -11060,22 +11064,22 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11100,13 +11104,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11124,19 +11128,19 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -11145,10 +11149,10 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -11159,10 +11163,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11173,31 +11177,31 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11210,7 +11214,7 @@
         <v>80</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>80</v>
@@ -11222,11 +11226,11 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
@@ -11244,19 +11248,19 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11265,10 +11269,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11279,10 +11283,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11293,28 +11297,28 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11328,7 +11332,7 @@
         <v>80</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>80</v>
@@ -11364,19 +11368,19 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11385,10 +11389,10 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11399,10 +11403,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11413,7 +11417,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11422,16 +11426,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11482,19 +11486,19 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11503,10 +11507,10 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11517,10 +11521,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11531,7 +11535,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11540,19 +11544,19 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11602,19 +11606,19 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11623,10 +11627,10 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11637,10 +11641,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11651,28 +11655,28 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11722,19 +11726,19 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11746,7 +11750,7 @@
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11757,10 +11761,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11771,7 +11775,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11780,22 +11784,22 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11844,45 +11848,45 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11893,7 +11897,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11905,19 +11909,19 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11942,13 +11946,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11966,19 +11970,19 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
@@ -11987,10 +11991,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12001,14 +12005,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12027,19 +12031,19 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12064,13 +12068,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12088,7 +12092,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12100,33 +12104,33 @@
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12149,19 +12153,19 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12210,7 +12214,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12222,7 +12226,7 @@
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
@@ -12231,10 +12235,10 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12245,10 +12249,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12259,7 +12263,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12271,16 +12275,16 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12306,13 +12310,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12330,45 +12334,45 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12379,7 +12383,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -12391,19 +12395,19 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12428,13 +12432,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -12452,19 +12456,19 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
@@ -12473,10 +12477,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12487,10 +12491,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12501,7 +12505,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12513,16 +12517,16 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12572,45 +12576,45 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12621,7 +12625,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12633,16 +12637,16 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12692,45 +12696,45 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12753,19 +12757,19 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12814,7 +12818,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12826,7 +12830,7 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12835,10 +12839,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12849,10 +12853,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12863,7 +12867,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12875,13 +12879,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12932,13 +12936,13 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
@@ -12956,7 +12960,7 @@
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12967,14 +12971,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12993,16 +12997,16 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13052,7 +13056,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13064,7 +13068,7 @@
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
@@ -13076,7 +13080,7 @@
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13087,14 +13091,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13107,25 +13111,25 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13174,7 +13178,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13186,7 +13190,7 @@
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
@@ -13198,7 +13202,7 @@
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13209,10 +13213,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13223,7 +13227,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -13235,13 +13239,13 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13292,19 +13296,19 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
@@ -13313,10 +13317,10 @@
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13327,10 +13331,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13341,7 +13345,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13353,13 +13357,13 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13410,19 +13414,19 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -13431,10 +13435,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13445,10 +13449,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13459,7 +13463,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -13471,19 +13475,19 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13508,13 +13512,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13532,31 +13536,31 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13567,10 +13571,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13593,19 +13597,19 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13630,13 +13634,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13654,7 +13658,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13666,19 +13670,19 @@
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13689,10 +13693,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13703,7 +13707,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13715,17 +13719,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13774,19 +13778,19 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
@@ -13798,7 +13802,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13809,10 +13813,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13823,7 +13827,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13835,13 +13839,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13892,19 +13896,19 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
@@ -13913,10 +13917,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13927,10 +13931,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13950,19 +13954,19 @@
         <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14012,7 +14016,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14024,7 +14028,7 @@
         <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
@@ -14033,10 +14037,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14047,10 +14051,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14070,19 +14074,19 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14132,7 +14136,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14144,7 +14148,7 @@
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
@@ -14153,10 +14157,10 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14167,10 +14171,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14190,22 +14194,22 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14254,7 +14258,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14266,7 +14270,7 @@
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>80</v>
@@ -14275,10 +14279,10 @@
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14289,10 +14293,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14303,7 +14307,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
@@ -14315,13 +14319,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14372,13 +14376,13 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
@@ -14396,7 +14400,7 @@
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14407,14 +14411,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14433,16 +14437,16 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14492,7 +14496,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14504,7 +14508,7 @@
         <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>80</v>
@@ -14516,7 +14520,7 @@
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14527,14 +14531,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14547,25 +14551,25 @@
         <v>80</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14614,7 +14618,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14626,7 +14630,7 @@
         <v>80</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>80</v>
@@ -14638,7 +14642,7 @@
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14649,10 +14653,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14660,10 +14664,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>80</v>
@@ -14672,22 +14676,22 @@
         <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14712,13 +14716,13 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -14736,34 +14740,34 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>80</v>
@@ -14771,10 +14775,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14785,7 +14789,7 @@
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>80</v>
@@ -14794,22 +14798,22 @@
         <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14858,45 +14862,45 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14907,7 +14911,7 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
@@ -14919,19 +14923,19 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -14956,13 +14960,13 @@
         <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
@@ -14980,19 +14984,19 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>80</v>
@@ -15001,10 +15005,10 @@
         <v>80</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
@@ -15015,14 +15019,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15041,19 +15045,19 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -15078,13 +15082,13 @@
         <v>80</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
@@ -15102,7 +15106,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15114,33 +15118,33 @@
         <v>80</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15166,16 +15170,16 @@
         <v>81</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15224,7 +15228,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15236,7 +15240,7 @@
         <v>80</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>80</v>
@@ -15245,10 +15249,10 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$123</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="674">
   <si>
     <t>Property</t>
   </si>
@@ -1007,7 +1007,444 @@
     <t>Who and/or what the observation is about</t>
   </si>
   <si>
-    <t>Reference to the practitioner that performed the observation, identified by Norwegian national id number (Fødselsnummer or DNR).
+    <t>Reference to the patient that is subject to the encounter, identified by Norwegian national id number (Fødselsnummer or DNR).
+A link to a resource representing the person or the group to whom the medication will be given.
+VKP always references a Patient Resource using a norwegian national id number (Fødselsnummer or DNR) in a logical identifier in the subject.identifier element.
+The Name of the patient should be given in the subject.display element.
+Example:
+~~~~
+"subject":{
+   "identifier":{
+      "system":"urn:oid:2.16.578.1.12.4.1.4.1",
+      "value":"05073500186"
+     },
+     "display":"Ærlend Sørgård"
+}
+~~~~</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.subject.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Observation.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.id</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.extension</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-subject-identifiers.valueset</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Observation.subject.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>Observation.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:type}
+</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.performer:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Reference to the person, role or team that performed the observation, identified by Norwegian national id number (Fødselsnummer or DNR).
 A link to a resource representing the person or the group to whom the medication will be given.
 VKP always references a Practitioner Resource using a norwegian national id number (Fødselsnummer or DNR) in a logical identifier in the practitioner.identifier element.
 The Name of the practitioner should be given in the performer.display element.
@@ -1023,456 +1460,146 @@
 ~~~~</t>
   </si>
   <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.subject.id</t>
-  </si>
-  <si>
-    <t>Observation.subject.extension</t>
-  </si>
-  <si>
-    <t>Observation.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
+    <t>Observation.performer:author.id</t>
+  </si>
+  <si>
+    <t>Observation.performer.id</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.reference</t>
+  </si>
+  <si>
+    <t>Observation.performer.reference</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.type</t>
+  </si>
+  <si>
+    <t>Observation.performer.type</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.identifier</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.identifier.id</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier.id</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.identifier.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.identifier.use</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier.use</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.identifier.type</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier.type</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.identifier.system</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier.system</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-identifiers.valueset</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.identifier.value</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier.value</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.identifier.period</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier.period</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Observation.performer.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Observation.performer:author.display</t>
+  </si>
+  <si>
+    <t>Observation.performer.display</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
-    <t>Observation.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.id</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.extension</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-subject-identifiers.valueset</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Observation.subject.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Observation.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.performer.id</t>
-  </si>
-  <si>
-    <t>Observation.performer.extension</t>
-  </si>
-  <si>
-    <t>Observation.performer.reference</t>
-  </si>
-  <si>
-    <t>Observation.performer.type</t>
-  </si>
-  <si>
-    <t>Observation.performer.identifier</t>
-  </si>
-  <si>
-    <t>Observation.performer.identifier.id</t>
-  </si>
-  <si>
-    <t>Observation.performer.identifier.extension</t>
-  </si>
-  <si>
-    <t>Observation.performer.identifier.use</t>
-  </si>
-  <si>
-    <t>Observation.performer.identifier.type</t>
-  </si>
-  <si>
-    <t>Observation.performer.identifier.system</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-identifiers.valueset</t>
-  </si>
-  <si>
-    <t>Observation.performer.identifier.value</t>
-  </si>
-  <si>
-    <t>Observation.performer.identifier.period</t>
-  </si>
-  <si>
-    <t>Observation.performer.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Observation.performer.display</t>
+    <t>Reference to the organization responsible for the information</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.id</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.reference</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.type</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.identifier</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.identifier.use</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.identifier.type</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.identifier.system</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.identifier.value</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.identifier.period</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Observation.performer:organization.display</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -2330,7 +2457,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP107"/>
+  <dimension ref="A1:AP123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2339,7 +2466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.66796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.95703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2349,7 +2476,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -9999,7 +10126,7 @@
         <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>83</v>
@@ -10055,16 +10182,14 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>443</v>
@@ -10082,19 +10207,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10102,12 +10227,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
       </c>
@@ -10116,28 +10243,30 @@
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>218</v>
+        <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>219</v>
+        <v>456</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
@@ -10185,34 +10314,34 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>220</v>
+        <v>443</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>221</v>
+        <v>451</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10220,21 +10349,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>83</v>
@@ -10246,17 +10375,15 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10293,31 +10420,31 @@
         <v>83</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>83</v>
@@ -10340,21 +10467,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>83</v>
@@ -10363,19 +10490,19 @@
         <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>330</v>
+        <v>141</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>332</v>
+        <v>143</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10413,31 +10540,31 @@
         <v>83</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>83</v>
@@ -10449,7 +10576,7 @@
         <v>83</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10460,10 +10587,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10486,16 +10613,16 @@
         <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10521,13 +10648,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10545,7 +10672,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10554,7 +10681,7 @@
         <v>94</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>106</v>
@@ -10580,10 +10707,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10597,7 +10724,7 @@
         <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>83</v>
@@ -10606,16 +10733,16 @@
         <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10641,13 +10768,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10665,7 +10792,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10689,7 +10816,7 @@
         <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>348</v>
+        <v>137</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10700,10 +10827,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10717,24 +10844,26 @@
         <v>94</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10783,7 +10912,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>220</v>
+        <v>347</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10795,7 +10924,7 @@
         <v>83</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>83</v>
@@ -10807,7 +10936,7 @@
         <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>221</v>
+        <v>348</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10818,21 +10947,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>83</v>
@@ -10844,17 +10973,15 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10891,31 +11018,31 @@
         <v>83</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>83</v>
@@ -10938,46 +11065,44 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>352</v>
+        <v>141</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>353</v>
+        <v>223</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>83</v>
       </c>
@@ -11001,43 +11126,43 @@
         <v>83</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>356</v>
+        <v>83</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>357</v>
+        <v>83</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>358</v>
+        <v>227</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>83</v>
@@ -11046,10 +11171,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>359</v>
+        <v>221</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11060,10 +11185,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11080,25 +11205,25 @@
         <v>83</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11123,13 +11248,13 @@
         <v>83</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>339</v>
+        <v>183</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
@@ -11147,7 +11272,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11168,7 +11293,7 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>368</v>
+        <v>137</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>359</v>
@@ -11182,10 +11307,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11199,7 +11324,7 @@
         <v>94</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>83</v>
@@ -11208,19 +11333,19 @@
         <v>95</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11233,7 +11358,7 @@
         <v>83</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>83</v>
@@ -11245,11 +11370,13 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y74" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="Z74" t="s" s="2">
-        <v>462</v>
+        <v>366</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
@@ -11267,7 +11394,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11288,10 +11415,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11302,10 +11429,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11328,18 +11455,20 @@
         <v>95</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
@@ -11351,7 +11480,7 @@
         <v>83</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>83</v>
@@ -11363,13 +11492,11 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11387,7 +11514,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11408,10 +11535,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11422,10 +11549,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11439,7 +11566,7 @@
         <v>94</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>83</v>
@@ -11448,15 +11575,17 @@
         <v>95</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>388</v>
+        <v>217</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11469,7 +11598,7 @@
         <v>83</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>83</v>
@@ -11505,7 +11634,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11526,10 +11655,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11540,10 +11669,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11566,17 +11695,15 @@
         <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11625,7 +11752,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11646,10 +11773,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11660,10 +11787,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11677,7 +11804,7 @@
         <v>94</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>83</v>
@@ -11686,16 +11813,16 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>217</v>
+        <v>395</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11745,7 +11872,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11766,10 +11893,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11780,10 +11907,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11797,7 +11924,7 @@
         <v>94</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>83</v>
@@ -11806,20 +11933,18 @@
         <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>468</v>
+        <v>217</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>470</v>
+        <v>404</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>83</v>
       </c>
@@ -11867,7 +11992,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11876,7 +12001,7 @@
         <v>94</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>473</v>
+        <v>83</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>106</v>
@@ -11885,29 +12010,31 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>474</v>
+        <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>476</v>
+        <v>137</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>477</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
       </c>
@@ -11916,31 +12043,29 @@
         <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>192</v>
+        <v>488</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -11965,13 +12090,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>483</v>
+        <v>83</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>484</v>
+        <v>83</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -11989,34 +12114,34 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>137</v>
+        <v>450</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>83</v>
+        <v>452</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12024,21 +12149,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>488</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>83</v>
@@ -12050,20 +12175,16 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>489</v>
+        <v>218</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>83</v>
       </c>
@@ -12087,13 +12208,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>493</v>
+        <v>83</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>494</v>
+        <v>83</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12111,49 +12232,49 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>487</v>
+        <v>220</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>496</v>
+        <v>83</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>497</v>
+        <v>221</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>498</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12172,20 +12293,18 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>501</v>
+        <v>141</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>502</v>
+        <v>223</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>83</v>
       </c>
@@ -12221,19 +12340,19 @@
         <v>83</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>499</v>
+        <v>227</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12245,7 +12364,7 @@
         <v>83</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>83</v>
@@ -12254,10 +12373,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>505</v>
+        <v>83</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>506</v>
+        <v>221</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12268,10 +12387,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12291,19 +12410,19 @@
         <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>508</v>
+        <v>330</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>509</v>
+        <v>331</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>510</v>
+        <v>332</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12329,13 +12448,13 @@
         <v>83</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>511</v>
+        <v>83</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>512</v>
+        <v>83</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>83</v>
@@ -12353,7 +12472,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>507</v>
+        <v>333</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12362,7 +12481,7 @@
         <v>94</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>106</v>
@@ -12371,27 +12490,27 @@
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>513</v>
+        <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>514</v>
+        <v>83</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>515</v>
+        <v>137</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>516</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12411,23 +12530,21 @@
         <v>83</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>518</v>
+        <v>336</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>519</v>
+        <v>337</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>83</v>
       </c>
@@ -12451,13 +12568,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>207</v>
+        <v>339</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>522</v>
+        <v>340</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>523</v>
+        <v>341</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12475,7 +12592,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>517</v>
+        <v>342</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12496,10 +12613,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>524</v>
+        <v>83</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>525</v>
+        <v>137</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12510,10 +12627,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12527,25 +12644,25 @@
         <v>94</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>527</v>
+        <v>152</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>528</v>
+        <v>344</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>529</v>
+        <v>345</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>530</v>
+        <v>346</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12595,7 +12712,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>526</v>
+        <v>347</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12613,27 +12730,27 @@
         <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>531</v>
+        <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>532</v>
+        <v>83</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>533</v>
+        <v>348</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>534</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>535</v>
+        <v>468</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12656,17 +12773,15 @@
         <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>536</v>
+        <v>217</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>537</v>
+        <v>218</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12715,7 +12830,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>535</v>
+        <v>220</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12727,37 +12842,37 @@
         <v>83</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>540</v>
+        <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>541</v>
+        <v>83</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>542</v>
+        <v>221</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>543</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>544</v>
+        <v>496</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12776,20 +12891,18 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>545</v>
+        <v>140</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>546</v>
+        <v>141</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>547</v>
+        <v>223</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>83</v>
       </c>
@@ -12825,19 +12938,19 @@
         <v>83</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>544</v>
+        <v>227</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12849,7 +12962,7 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>550</v>
+        <v>145</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>83</v>
@@ -12858,10 +12971,10 @@
         <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>551</v>
+        <v>83</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>552</v>
+        <v>221</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12872,10 +12985,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>553</v>
+        <v>472</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12892,22 +13005,26 @@
         <v>83</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
       </c>
@@ -12931,13 +13048,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>83</v>
+        <v>356</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -12955,7 +13072,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12967,7 +13084,7 @@
         <v>83</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>83</v>
@@ -12976,10 +13093,10 @@
         <v>83</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12990,21 +13107,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>554</v>
+        <v>474</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>83</v>
@@ -13013,21 +13130,23 @@
         <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>141</v>
+        <v>361</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>223</v>
+        <v>362</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
       </c>
@@ -13051,13 +13170,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13075,19 +13194,19 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>83</v>
@@ -13096,10 +13215,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>83</v>
+        <v>368</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13110,45 +13229,45 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>555</v>
+        <v>476</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>556</v>
+        <v>83</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>557</v>
+        <v>370</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>558</v>
+        <v>371</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>143</v>
+        <v>372</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>149</v>
+        <v>373</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13161,7 +13280,7 @@
         <v>83</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>83</v>
@@ -13197,19 +13316,19 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>559</v>
+        <v>376</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>83</v>
@@ -13218,10 +13337,10 @@
         <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>137</v>
+        <v>378</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13232,10 +13351,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>560</v>
+        <v>479</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13249,24 +13368,26 @@
         <v>94</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>561</v>
+        <v>217</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>562</v>
+        <v>380</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13279,7 +13400,7 @@
         <v>83</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>83</v>
@@ -13315,7 +13436,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>560</v>
+        <v>384</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13324,7 +13445,7 @@
         <v>94</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>564</v>
+        <v>83</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>106</v>
@@ -13336,10 +13457,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>565</v>
+        <v>385</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>566</v>
+        <v>386</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13350,10 +13471,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>567</v>
+        <v>501</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>567</v>
+        <v>481</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13373,16 +13494,16 @@
         <v>83</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>561</v>
+        <v>388</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>568</v>
+        <v>389</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>569</v>
+        <v>390</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13433,7 +13554,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>567</v>
+        <v>391</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13442,7 +13563,7 @@
         <v>94</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>564</v>
+        <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>106</v>
@@ -13454,10 +13575,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>565</v>
+        <v>392</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>570</v>
+        <v>393</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13468,10 +13589,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>571</v>
+        <v>502</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>571</v>
+        <v>483</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13491,23 +13612,21 @@
         <v>83</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>192</v>
+        <v>395</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>572</v>
+        <v>396</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>573</v>
+        <v>397</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>83</v>
       </c>
@@ -13531,13 +13650,13 @@
         <v>83</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>576</v>
+        <v>83</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>577</v>
+        <v>83</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>83</v>
@@ -13555,7 +13674,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>571</v>
+        <v>399</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13573,13 +13692,13 @@
         <v>83</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>578</v>
+        <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>579</v>
+        <v>400</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>497</v>
+        <v>401</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13590,10 +13709,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>580</v>
+        <v>503</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>580</v>
+        <v>485</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13604,32 +13723,30 @@
         <v>81</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>581</v>
+        <v>403</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>582</v>
+        <v>404</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>83</v>
       </c>
@@ -13653,13 +13770,13 @@
         <v>83</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>585</v>
+        <v>83</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>586</v>
+        <v>83</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>83</v>
@@ -13677,13 +13794,13 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>580</v>
+        <v>406</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>83</v>
@@ -13695,13 +13812,13 @@
         <v>83</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>578</v>
+        <v>83</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>579</v>
+        <v>83</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>497</v>
+        <v>137</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -13712,10 +13829,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>587</v>
+        <v>504</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>587</v>
+        <v>504</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13735,20 +13852,22 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>588</v>
+        <v>505</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
+        <v>506</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="O95" t="s" s="2">
-        <v>591</v>
+        <v>509</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13797,7 +13916,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>587</v>
+        <v>504</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13806,7 +13925,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>83</v>
+        <v>510</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13815,27 +13934,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>83</v>
+        <v>511</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>83</v>
+        <v>512</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>592</v>
+        <v>513</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>83</v>
+        <v>514</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>593</v>
+        <v>515</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>593</v>
+        <v>515</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13858,16 +13977,20 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>594</v>
+        <v>516</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
       </c>
@@ -13891,13 +14014,13 @@
         <v>83</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>83</v>
+        <v>521</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -13915,7 +14038,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>593</v>
+        <v>515</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13924,7 +14047,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>83</v>
+        <v>522</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -13936,10 +14059,10 @@
         <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>565</v>
+        <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>596</v>
+        <v>523</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -13950,14 +14073,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>597</v>
+        <v>524</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>597</v>
+        <v>524</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>83</v>
+        <v>525</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13973,21 +14096,23 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>598</v>
+        <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>599</v>
+        <v>526</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>600</v>
+        <v>527</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
       </c>
@@ -14011,13 +14136,13 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>83</v>
+        <v>530</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>83</v>
+        <v>531</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14035,7 +14160,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>597</v>
+        <v>524</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14053,27 +14178,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>602</v>
+        <v>533</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>603</v>
+        <v>534</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>83</v>
+        <v>535</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14093,21 +14218,23 @@
         <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
       </c>
@@ -14155,7 +14282,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14176,10 +14303,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>602</v>
+        <v>542</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>609</v>
+        <v>543</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14190,10 +14317,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>610</v>
+        <v>544</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>610</v>
+        <v>544</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14204,7 +14331,7 @@
         <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>83</v>
@@ -14213,23 +14340,21 @@
         <v>83</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>611</v>
-      </c>
       <c r="M99" t="s" s="2">
-        <v>612</v>
+        <v>546</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>83</v>
       </c>
@@ -14253,13 +14378,13 @@
         <v>83</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>83</v>
+        <v>548</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>83</v>
+        <v>549</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14277,13 +14402,13 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>610</v>
+        <v>544</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>83</v>
@@ -14295,27 +14420,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>83</v>
+        <v>550</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>615</v>
+        <v>551</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>616</v>
+        <v>552</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>83</v>
+        <v>553</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>617</v>
+        <v>554</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>617</v>
+        <v>554</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14338,16 +14463,20 @@
         <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>218</v>
+        <v>555</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
       </c>
@@ -14371,13 +14500,13 @@
         <v>83</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>83</v>
+        <v>559</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>83</v>
+        <v>560</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14395,7 +14524,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>220</v>
+        <v>554</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14407,7 +14536,7 @@
         <v>83</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>83</v>
@@ -14416,10 +14545,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>83</v>
+        <v>561</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>221</v>
+        <v>562</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14430,21 +14559,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>618</v>
+        <v>563</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>618</v>
+        <v>563</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>83</v>
@@ -14456,16 +14585,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>140</v>
+        <v>564</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>141</v>
+        <v>565</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>223</v>
+        <v>566</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>143</v>
+        <v>567</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14515,81 +14644,79 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>227</v>
+        <v>563</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>83</v>
+        <v>568</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>83</v>
+        <v>569</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>221</v>
+        <v>570</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>83</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>556</v>
+        <v>83</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>140</v>
+        <v>573</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>83</v>
       </c>
@@ -14637,45 +14764,45 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>83</v>
+        <v>577</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>83</v>
+        <v>578</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>137</v>
+        <v>579</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>83</v>
+        <v>580</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>581</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>620</v>
+        <v>581</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14683,10 +14810,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>83</v>
@@ -14695,22 +14822,22 @@
         <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>192</v>
+        <v>582</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>206</v>
+        <v>586</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14735,13 +14862,13 @@
         <v>83</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>83</v>
@@ -14759,34 +14886,34 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>620</v>
+        <v>581</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>106</v>
+        <v>587</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>624</v>
+        <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>212</v>
+        <v>588</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>213</v>
+        <v>589</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>83</v>
@@ -14794,10 +14921,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14817,23 +14944,19 @@
         <v>83</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>468</v>
+        <v>217</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>626</v>
+        <v>218</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>83</v>
       </c>
@@ -14881,7 +15004,7 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>625</v>
+        <v>220</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -14893,44 +15016,44 @@
         <v>83</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>628</v>
+        <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>476</v>
+        <v>221</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>477</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>83</v>
@@ -14942,20 +15065,18 @@
         <v>83</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>630</v>
+        <v>141</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>631</v>
+        <v>223</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>83</v>
       </c>
@@ -14979,13 +15100,13 @@
         <v>83</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>483</v>
+        <v>83</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>484</v>
+        <v>83</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>83</v>
@@ -15003,19 +15124,19 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>629</v>
+        <v>227</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>83</v>
@@ -15024,10 +15145,10 @@
         <v>83</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>486</v>
+        <v>221</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>83</v>
@@ -15038,14 +15159,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>633</v>
+        <v>592</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>633</v>
+        <v>592</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15058,25 +15179,25 @@
         <v>83</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>489</v>
+        <v>594</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>491</v>
+        <v>143</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>492</v>
+        <v>149</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>83</v>
@@ -15101,13 +15222,13 @@
         <v>83</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>493</v>
+        <v>83</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>494</v>
+        <v>83</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>83</v>
@@ -15125,7 +15246,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>633</v>
+        <v>596</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15137,33 +15258,33 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>496</v>
+        <v>83</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>497</v>
+        <v>137</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>498</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>634</v>
+        <v>597</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>634</v>
+        <v>597</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15174,7 +15295,7 @@
         <v>81</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>83</v>
@@ -15186,20 +15307,16 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>84</v>
+        <v>598</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>83</v>
       </c>
@@ -15247,16 +15364,16 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>634</v>
+        <v>597</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>83</v>
+        <v>601</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15268,20 +15385,1952 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP107" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP112" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP113" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP114" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP115" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP116" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP117" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP118" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP119" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP122" t="s" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP123" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP107">
+  <autoFilter ref="A1:AP123">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15291,7 +17340,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
+  <conditionalFormatting sqref="A2:AI122">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -1007,7 +1007,7 @@
     <t>Who and/or what the observation is about</t>
   </si>
   <si>
-    <t>Reference to the patient that is subject to the encounter, identified by Norwegian national id number (Fødselsnummer or DNR).
+    <t>Reference to the patient that is subject of the observation, identified by Norwegian national id number (Fødselsnummer or DNR).
 A link to a resource representing the person or the group to whom the medication will be given.
 VKP always references a Patient Resource using a norwegian national id number (Fødselsnummer or DNR) in a logical identifier in the subject.identifier element.
 The Name of the patient should be given in the subject.display element.
@@ -1557,7 +1557,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to the organization responsible for the information</t>
+    <t>Reference to the organization responsible for the information (opprinnelig dataansvarlig virksomhet)</t>
   </si>
   <si>
     <t>Observation.performer:organization.id</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -4824,7 +4824,7 @@
         <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
@@ -5790,7 +5790,7 @@
         <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
@@ -6756,7 +6756,7 @@
         <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="675">
   <si>
     <t>Property</t>
   </si>
@@ -1588,6 +1588,9 @@
   </si>
   <si>
     <t>Observation.performer:organization.identifier.system</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-organization-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer:organization.identifier.value</t>
@@ -2491,7 +2494,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="50.453125" customWidth="true" bestFit="true"/>
@@ -13292,13 +13295,11 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>83</v>
+        <v>500</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13351,7 +13352,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>479</v>
@@ -13471,7 +13472,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>481</v>
@@ -13589,7 +13590,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>483</v>
@@ -13709,7 +13710,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>485</v>
@@ -13829,10 +13830,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13855,19 +13856,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13916,7 +13917,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13925,7 +13926,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13934,27 +13935,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13980,16 +13981,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14017,10 +14018,10 @@
         <v>339</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14038,7 +14039,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14047,7 +14048,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14062,7 +14063,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14073,14 +14074,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14102,16 +14103,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14139,10 +14140,10 @@
         <v>339</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14160,7 +14161,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14178,27 +14179,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14221,19 +14222,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14282,7 +14283,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14303,10 +14304,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14317,10 +14318,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14346,13 +14347,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14381,10 +14382,10 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14402,7 +14403,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14420,27 +14421,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14466,16 +14467,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14503,10 +14504,10 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14524,7 +14525,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14545,10 +14546,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14559,10 +14560,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14585,16 +14586,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14644,7 +14645,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14662,27 +14663,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14705,16 +14706,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14764,7 +14765,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14782,27 +14783,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14825,19 +14826,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14886,7 +14887,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14898,7 +14899,7 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -14907,10 +14908,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14921,10 +14922,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15039,10 +15040,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15159,14 +15160,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15188,10 +15189,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15246,7 +15247,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15281,10 +15282,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15307,13 +15308,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15364,7 +15365,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15373,7 +15374,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15385,10 +15386,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15399,10 +15400,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15425,13 +15426,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15482,7 +15483,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15491,7 +15492,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15503,10 +15504,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15517,10 +15518,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15546,16 +15547,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15583,10 +15584,10 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15604,7 +15605,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15622,13 +15623,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15639,10 +15640,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15668,16 +15669,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15705,10 +15706,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15726,7 +15727,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15744,13 +15745,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15761,10 +15762,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15787,17 +15788,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15846,7 +15847,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15870,7 +15871,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15881,10 +15882,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15910,10 +15911,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15964,7 +15965,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15985,10 +15986,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -15999,10 +16000,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16025,16 +16026,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16084,7 +16085,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16105,10 +16106,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16119,10 +16120,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16145,16 +16146,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16204,7 +16205,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16225,10 +16226,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16239,10 +16240,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16265,19 +16266,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16326,7 +16327,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16347,10 +16348,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16361,10 +16362,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16479,10 +16480,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16599,14 +16600,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16628,10 +16629,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16686,7 +16687,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16721,10 +16722,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16750,13 +16751,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16808,7 +16809,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16826,7 +16827,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16843,10 +16844,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16869,19 +16870,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16930,7 +16931,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16948,27 +16949,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16994,16 +16995,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17031,10 +17032,10 @@
         <v>339</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17052,7 +17053,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17061,7 +17062,7 @@
         <v>94</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17076,7 +17077,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17087,14 +17088,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17116,16 +17117,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17153,10 +17154,10 @@
         <v>339</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17174,7 +17175,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17192,27 +17193,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17238,16 +17239,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17296,7 +17297,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17317,10 +17318,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="674">
   <si>
     <t>Property</t>
   </si>
@@ -1416,10 +1416,6 @@
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:type}
-</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -10185,7 +10181,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>448</v>
+        <v>234</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -10210,19 +10206,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10230,13 +10226,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>443</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10258,13 +10254,13 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10332,19 +10328,19 @@
         <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10352,10 +10348,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10470,10 +10466,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10590,10 +10586,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10710,10 +10706,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10830,10 +10826,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10950,10 +10946,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11068,10 +11064,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11188,10 +11184,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11310,10 +11306,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11432,10 +11428,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11499,7 +11495,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11552,10 +11548,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11672,10 +11668,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11790,10 +11786,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11910,10 +11906,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12030,13 +12026,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>443</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -12058,13 +12054,13 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>445</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -12132,19 +12128,19 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12152,10 +12148,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12270,10 +12266,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12390,10 +12386,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12510,10 +12506,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12630,10 +12626,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12750,10 +12746,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12868,10 +12864,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12988,10 +12984,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13110,10 +13106,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13232,10 +13228,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13299,7 +13295,7 @@
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13352,10 +13348,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13472,10 +13468,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13590,10 +13586,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13710,10 +13706,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13830,10 +13826,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13856,19 +13852,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13917,7 +13913,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13926,7 +13922,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13935,27 +13931,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13981,16 +13977,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14018,37 +14014,37 @@
         <v>339</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Z96" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="Z96" t="s" s="2">
+      <c r="AA96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI96" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14063,7 +14059,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14074,14 +14070,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14103,16 +14099,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14140,11 +14136,11 @@
         <v>339</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Z97" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Z97" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
       </c>
@@ -14161,7 +14157,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14179,27 +14175,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP97" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>536</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14222,19 +14218,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14283,7 +14279,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14304,10 +14300,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14318,10 +14314,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14347,13 +14343,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14382,11 +14378,11 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
       </c>
@@ -14403,7 +14399,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14421,27 +14417,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AN99" t="s" s="2">
+      <c r="AO99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP99" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>554</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14467,16 +14463,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14504,11 +14500,11 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
       </c>
@@ -14525,7 +14521,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14546,10 +14542,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14560,10 +14556,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14586,16 +14582,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14645,7 +14641,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14663,27 +14659,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AN101" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AN101" t="s" s="2">
+      <c r="AO101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP101" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>572</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14706,16 +14702,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14765,7 +14761,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14783,27 +14779,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP102" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>581</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14826,19 +14822,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14887,7 +14883,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14899,19 +14895,19 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14922,10 +14918,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15040,10 +15036,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15160,14 +15156,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15189,10 +15185,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15247,7 +15243,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15282,10 +15278,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15308,13 +15304,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15365,7 +15361,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15374,7 +15370,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15386,10 +15382,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15400,10 +15396,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15426,13 +15422,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15483,7 +15479,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15492,7 +15488,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15504,10 +15500,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15518,10 +15514,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15547,16 +15543,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15584,11 +15580,11 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="Z109" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="Z109" t="s" s="2">
-        <v>615</v>
-      </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
       </c>
@@ -15605,7 +15601,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15623,13 +15619,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AM109" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="AN109" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15640,10 +15636,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15669,16 +15665,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15706,11 +15702,11 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
       </c>
@@ -15727,7 +15723,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15745,13 +15741,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AM110" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="AN110" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15762,10 +15758,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15788,17 +15784,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15847,7 +15843,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15871,7 +15867,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15882,10 +15878,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15911,10 +15907,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15965,7 +15961,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15986,10 +15982,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16000,10 +15996,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16026,16 +16022,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16085,7 +16081,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16106,10 +16102,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16120,10 +16116,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16146,16 +16142,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16205,7 +16201,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16226,10 +16222,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16240,10 +16236,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16266,19 +16262,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16327,7 +16323,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16348,10 +16344,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16362,10 +16358,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16480,10 +16476,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16600,14 +16596,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16629,10 +16625,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16687,7 +16683,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16722,10 +16718,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16751,13 +16747,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16809,7 +16805,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16827,7 +16823,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16844,10 +16840,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16870,19 +16866,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="O120" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16931,7 +16927,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16949,27 +16945,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="AO120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16995,16 +16991,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="N121" t="s" s="2">
-        <v>670</v>
-      </c>
       <c r="O121" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17032,37 +17028,37 @@
         <v>339</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="Z121" t="s" s="2">
+      <c r="AA121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI121" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17077,7 +17073,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17088,14 +17084,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17117,16 +17113,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17154,11 +17150,11 @@
         <v>339</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
       </c>
@@ -17175,7 +17171,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17193,27 +17189,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN122" t="s" s="2">
+      <c r="AO122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP122" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>536</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17239,16 +17235,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="M123" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="N123" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="O123" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17297,7 +17293,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17318,10 +17314,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN123" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="675">
   <si>
     <t>Property</t>
   </si>
@@ -1416,6 +1416,10 @@
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:identifier.system}
+</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -2492,7 +2496,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="71.828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="50.453125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -10181,7 +10185,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>234</v>
+        <v>448</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -10206,19 +10210,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10226,13 +10230,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>443</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10254,13 +10258,13 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10328,19 +10332,19 @@
         <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10348,10 +10352,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10466,10 +10470,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10586,10 +10590,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10706,10 +10710,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10826,10 +10830,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10946,10 +10950,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11064,10 +11068,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11184,10 +11188,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11306,10 +11310,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11428,10 +11432,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11495,7 +11499,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11548,10 +11552,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11668,10 +11672,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11786,10 +11790,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11906,10 +11910,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12026,13 +12030,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>443</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -12054,13 +12058,13 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>445</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -12128,19 +12132,19 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12148,10 +12152,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12266,10 +12270,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12386,10 +12390,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12506,10 +12510,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12626,10 +12630,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12746,10 +12750,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12864,10 +12868,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12984,10 +12988,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13106,10 +13110,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13228,10 +13232,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13295,7 +13299,7 @@
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13348,10 +13352,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13468,10 +13472,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13586,10 +13590,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13706,10 +13710,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13826,10 +13830,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13852,19 +13856,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13913,7 +13917,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13922,7 +13926,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13931,27 +13935,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13977,16 +13981,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14014,10 +14018,10 @@
         <v>339</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14035,7 +14039,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14044,7 +14048,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14059,7 +14063,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14070,14 +14074,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14099,16 +14103,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14136,10 +14140,10 @@
         <v>339</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14157,7 +14161,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14175,27 +14179,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14218,19 +14222,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14279,7 +14283,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14300,10 +14304,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14314,10 +14318,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14343,13 +14347,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14378,10 +14382,10 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14399,7 +14403,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14417,27 +14421,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14463,16 +14467,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14500,10 +14504,10 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14521,7 +14525,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14542,10 +14546,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14556,10 +14560,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14582,16 +14586,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14641,7 +14645,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14659,27 +14663,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14702,16 +14706,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14761,7 +14765,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14779,27 +14783,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14822,19 +14826,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14883,7 +14887,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14895,7 +14899,7 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -14904,10 +14908,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14918,10 +14922,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15036,10 +15040,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15156,14 +15160,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15185,10 +15189,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15243,7 +15247,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15278,10 +15282,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15304,13 +15308,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15361,7 +15365,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15370,7 +15374,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15382,10 +15386,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15396,10 +15400,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15422,13 +15426,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15479,7 +15483,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15488,7 +15492,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15500,10 +15504,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15514,10 +15518,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15543,16 +15547,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15580,10 +15584,10 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15601,7 +15605,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15619,13 +15623,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15636,10 +15640,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15665,16 +15669,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15702,10 +15706,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15723,7 +15727,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15741,13 +15745,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15758,10 +15762,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15784,17 +15788,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15843,7 +15847,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15867,7 +15871,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15878,10 +15882,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15907,10 +15911,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15961,7 +15965,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15982,10 +15986,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -15996,10 +16000,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16022,16 +16026,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16081,7 +16085,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16102,10 +16106,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16116,10 +16120,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16142,16 +16146,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16201,7 +16205,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16222,10 +16226,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16236,10 +16240,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16262,19 +16266,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16323,7 +16327,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16344,10 +16348,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16358,10 +16362,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16476,10 +16480,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16596,14 +16600,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16625,10 +16629,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16683,7 +16687,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16718,10 +16722,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16747,13 +16751,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16805,7 +16809,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16823,7 +16827,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16840,10 +16844,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16866,19 +16870,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16927,7 +16931,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16945,27 +16949,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16991,16 +16995,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17028,10 +17032,10 @@
         <v>339</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17049,7 +17053,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17058,7 +17062,7 @@
         <v>94</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17073,7 +17077,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17084,14 +17088,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17113,16 +17117,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17150,10 +17154,10 @@
         <v>339</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17171,7 +17175,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17189,27 +17193,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17235,16 +17239,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17293,7 +17297,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17314,10 +17318,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -668,7 +668,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1085,7 +1085,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1163,7 +1163,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1251,7 +1251,7 @@
     <t>Observation.subject.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1291,7 +1291,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1314,7 +1314,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1405,7 +1405,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1659,7 +1659,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1691,7 +1691,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1747,7 +1747,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1780,7 +1780,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1792,7 +1792,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1900,7 +1900,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1950,7 +1950,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1983,7 +1983,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2020,7 +2020,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2042,7 +2042,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -7826,7 +7826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>317</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>343</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>369</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>379</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>402</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>453</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>465</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>475</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>478</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>484</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>486</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>494</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>499</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>501</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>504</v>
       </c>
@@ -17332,12 +17332,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP123">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
